--- a/AfDD_2024_Annex_Table_Tab10.xlsx
+++ b/AfDD_2024_Annex_Table_Tab10.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{38677070-58A2-4943-9C77-9BA1E26F84DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{62365F8F-29C4-42E0-B257-4D03B0CCF28E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="0" windowWidth="19200" windowHeight="21150" xr2:uid="{F74C2113-88B8-419D-A9C2-28C17173FB76}"/>
+    <workbookView xWindow="-38520" yWindow="-5400" windowWidth="38640" windowHeight="21120" xr2:uid="{B36C03ED-B292-457C-B10B-29FCBF90E4B4}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab10" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="173">
   <si>
     <t>Table 10: Gender indicators</t>
   </si>
@@ -540,16 +540,13 @@
     <t>Regional Economic Communities:CEN-SAD = "Community of Sahel-Saharan States";COMESA = "Common Market for Eastern and Southern Africa";EAC = "East African Community";ECCAS = "Economic Community of Central African States";ECOWAS = "Economic Community of West African States";IGAD = "Intergovernmental Authority on Development";SADC = "Southern African Development Community";UMA = "Arab Maghreb Union";PALOP = "Países Africanos de Língua Oficial Portuguesa";ASEAN = "Association of Southeast Asian Nations";MERCOSUR = "Mercado Común del Sur".EU27 = "European Union (27 members)".OECD = "Organisation for Economic Co-operation and Development".</t>
   </si>
   <si>
-    <t>Source: United Nations Development Programme Human Development Data Online (2021-22 edition), Social Institutions and Gender Index, OECD Development Centre (updated with new methodology December 2018).</t>
-  </si>
-  <si>
-    <t>If you would like to Implore these data further, look up historic values for these indicators, or produce interactive visualisations of these data, please visit the website https://oe.cd/AFDD-2022</t>
+    <t>Source: United Nations Development Programme Human Development Data Online (2021-22 edition), Social Institutions and Gender Index (SIGI), OECD Development Centre 2023.</t>
+  </si>
+  <si>
+    <t>If you would like to Implore these data further, look up historic values for these indicators, or produce interactive visualisations of these data, please visit the website https://oe.cd/AFDD-2024</t>
   </si>
   <si>
     <t>To download all data for the Africa's Development Dynamics statistical annex in an Excel format, including historic data back to 2000, click here.</t>
-  </si>
-  <si>
-    <t>To download the entire dataset as a flat file in compressed CSV form, click here.</t>
   </si>
   <si>
     <t>For more information about the indicators presented in this table, go to the List of indicators, descriptions and details, click here.</t>
@@ -565,33 +562,18 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="5">
+  <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0_);\(0\)"/>
-    <numFmt numFmtId="165" formatCode="#,##0.000_);\(#,##0.000\)"/>
-    <numFmt numFmtId="166" formatCode="#,##0.0_);\(#,##0.0\)"/>
-    <numFmt numFmtId="167" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -604,6 +586,14 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FFD42C2D"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -677,6 +667,13 @@
     </font>
     <font>
       <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
       <sz val="8"/>
       <color theme="1"/>
       <name val="Calibri Light"/>
@@ -685,10 +682,23 @@
     </font>
     <font>
       <b/>
+      <sz val="8"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
       <i/>
       <u/>
       <sz val="12"/>
-      <color theme="10"/>
+      <color rgb="FFD42C2D"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -703,18 +713,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF0070C0"/>
+        <fgColor rgb="FFD42C2D"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
+        <fgColor rgb="FFFBE3DB"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -724,13 +734,11 @@
     </border>
     <border>
       <left style="medium">
-        <color rgb="FF0070C0"/>
+        <color rgb="FFD42C2D"/>
       </left>
-      <right style="medium">
-        <color rgb="FF0070C0"/>
-      </right>
+      <right/>
       <top style="medium">
-        <color rgb="FF0070C0"/>
+        <color rgb="FFD42C2D"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -739,7 +747,7 @@
       <left/>
       <right/>
       <top style="medium">
-        <color rgb="FF0070C0"/>
+        <color rgb="FFD42C2D"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -747,29 +755,51 @@
     <border>
       <left/>
       <right style="medium">
-        <color rgb="FF0070C0"/>
+        <color rgb="FFD42C2D"/>
       </right>
       <top style="medium">
-        <color rgb="FF0070C0"/>
+        <color rgb="FFD42C2D"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color rgb="FF0070C0"/>
+        <color rgb="FFD42C2D"/>
       </left>
       <right style="medium">
-        <color rgb="FF0070C0"/>
+        <color rgb="FFD42C2D"/>
       </right>
-      <top/>
+      <top style="medium">
+        <color rgb="FFD42C2D"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFD42C2D"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="medium">
-        <color rgb="FF0070C0"/>
+        <color rgb="FFD42C2D"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFD42C2D"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFD42C2D"/>
       </right>
       <top/>
       <bottom/>
@@ -777,16 +807,45 @@
     </border>
     <border>
       <left style="medium">
-        <color rgb="FF0070C0"/>
+        <color rgb="FFD42C2D"/>
       </left>
       <right style="medium">
-        <color rgb="FF0070C0"/>
+        <color rgb="FFD42C2D"/>
       </right>
-      <top style="medium">
-        <color rgb="FF0070C0"/>
-      </top>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFD42C2D"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFD42C2D"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFD42C2D"/>
+      </right>
+      <top/>
       <bottom style="medium">
-        <color rgb="FF0070C0"/>
+        <color rgb="FFD42C2D"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFD42C2D"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFD42C2D"/>
       </bottom>
       <diagonal/>
     </border>
@@ -794,263 +853,289 @@
       <left/>
       <right/>
       <top style="medium">
-        <color rgb="FF0070C0"/>
+        <color rgb="FFD42C2D"/>
       </top>
       <bottom style="medium">
-        <color rgb="FF0070C0"/>
+        <color rgb="FFD42C2D"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="medium">
-        <color rgb="FF0070C0"/>
+        <color rgb="FFD42C2D"/>
       </right>
       <top style="medium">
-        <color rgb="FF0070C0"/>
+        <color rgb="FFD42C2D"/>
       </top>
       <bottom style="medium">
-        <color rgb="FF0070C0"/>
+        <color rgb="FFD42C2D"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color rgb="FF0070C0"/>
+        <color rgb="FFD42C2D"/>
       </left>
       <right style="medium">
-        <color rgb="FF0070C0"/>
+        <color rgb="FFD42C2D"/>
       </right>
-      <top/>
+      <top style="medium">
+        <color rgb="FFD42C2D"/>
+      </top>
       <bottom style="medium">
-        <color rgb="FF0070C0"/>
+        <color rgb="FFD42C2D"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="medium">
+        <color rgb="FFD42C2D"/>
+      </left>
       <right/>
-      <top/>
+      <top style="medium">
+        <color rgb="FFD42C2D"/>
+      </top>
       <bottom style="medium">
-        <color rgb="FF0070C0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF0070C0"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF0070C0"/>
+        <color rgb="FFD42C2D"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="37" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="9" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="9" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="10" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="9" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="10" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="9" fillId="3" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="9" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="9" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="39" fontId="9" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="39" fontId="9" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="9" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="9" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="9" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="39" fontId="11" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="39" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="39" fontId="11" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="39" fontId="11" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="39" fontId="9" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="9" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="39" fontId="9" fillId="3" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="39" fontId="11" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="39" fontId="11" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="39" fontId="9" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="39" fontId="9" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="39" fontId="9" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="6" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="6" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="6" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="39" fontId="6" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    <xf numFmtId="39" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="39" fontId="6" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="39" fontId="6" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="39" fontId="14" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="14" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="14" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="14" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="39" fontId="6" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="39" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="39" fontId="6" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="39" fontId="14" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="14" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="14" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="14" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="166" fontId="14" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="166" fontId="14" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="37" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="37" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1366,19 +1451,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EED609F-6763-4E14-9B97-459BC412B19D}">
-  <sheetPr codeName="Sheet8">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F15DBA03-0EB5-4331-8AFD-DE64018D10C4}">
+  <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:J114"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="10" width="12.28515625" style="68" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="10" width="12.42578125" style="78" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1388,3323 +1473,3324 @@
       </c>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="6"/>
     </row>
     <row r="2" spans="1:10" ht="57" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="J2" s="12" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C3" s="15">
         <v>0.58599999999999997</v>
       </c>
-      <c r="D3" s="10">
+      <c r="D3" s="16">
         <v>0.90300000000000002</v>
       </c>
-      <c r="E3" s="11">
+      <c r="E3" s="17">
         <v>0.53700000000000003</v>
       </c>
-      <c r="F3" s="12">
+      <c r="F3" s="15">
         <v>26.2</v>
       </c>
-      <c r="G3" s="12">
+      <c r="G3" s="16">
         <v>22.2</v>
       </c>
-      <c r="H3" s="12">
+      <c r="H3" s="17">
         <v>29.4</v>
       </c>
-      <c r="I3" s="12">
+      <c r="I3" s="16">
         <v>41</v>
       </c>
-      <c r="J3" s="13">
+      <c r="J3" s="18">
         <v>9.6999999999999993</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="15">
+      <c r="C4" s="20">
         <v>0.69299999999999995</v>
       </c>
-      <c r="D4" s="15">
+      <c r="D4" s="21">
         <v>0.98099999999999998</v>
       </c>
-      <c r="E4" s="16">
+      <c r="E4" s="21">
         <v>0.46800000000000003</v>
       </c>
-      <c r="F4" s="17">
+      <c r="F4" s="20">
         <v>32.200000000000003</v>
       </c>
-      <c r="G4" s="17">
+      <c r="G4" s="21">
         <v>53.2</v>
       </c>
-      <c r="H4" s="17">
+      <c r="H4" s="21">
         <v>14.3</v>
       </c>
-      <c r="I4" s="17">
+      <c r="I4" s="21">
         <v>20</v>
       </c>
-      <c r="J4" s="18">
+      <c r="J4" s="22">
         <v>36.5</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="20">
+      <c r="C5" s="24">
         <v>0.59699999999999998</v>
       </c>
-      <c r="D5" s="20">
+      <c r="D5" s="25">
         <v>0.98599999999999999</v>
       </c>
-      <c r="E5" s="21">
+      <c r="E5" s="25">
         <v>0.54</v>
       </c>
-      <c r="F5" s="22" t="s">
+      <c r="F5" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="22">
+      <c r="G5" s="25">
         <v>47.9</v>
       </c>
-      <c r="H5" s="22">
+      <c r="H5" s="25">
         <v>48.7</v>
       </c>
-      <c r="I5" s="22" t="s">
+      <c r="I5" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="J5" s="23">
+      <c r="J5" s="26">
         <v>56.1</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="20">
+      <c r="C6" s="24">
         <v>0.51400000000000001</v>
       </c>
-      <c r="D6" s="20">
+      <c r="D6" s="25">
         <v>0.98499999999999999</v>
       </c>
-      <c r="E6" s="21">
+      <c r="E6" s="25">
         <v>0.55700000000000005</v>
       </c>
-      <c r="F6" s="22">
+      <c r="F6" s="24">
         <v>37.9</v>
       </c>
-      <c r="G6" s="22">
+      <c r="G6" s="25">
         <v>64</v>
       </c>
-      <c r="H6" s="22">
+      <c r="H6" s="25">
         <v>21.2</v>
       </c>
-      <c r="I6" s="22">
+      <c r="I6" s="25">
         <v>46.3</v>
       </c>
-      <c r="J6" s="23">
+      <c r="J6" s="26">
         <v>11.3</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="20">
+      <c r="C7" s="24">
         <v>0.51200000000000001</v>
       </c>
-      <c r="D7" s="20">
+      <c r="D7" s="25">
         <v>0.96799999999999997</v>
       </c>
-      <c r="E7" s="21">
+      <c r="E7" s="25">
         <v>0.55400000000000005</v>
       </c>
-      <c r="F7" s="22">
+      <c r="F7" s="24">
         <v>32.9</v>
       </c>
-      <c r="G7" s="22">
+      <c r="G7" s="25">
         <v>12.7</v>
       </c>
-      <c r="H7" s="22">
+      <c r="H7" s="25">
         <v>34.1</v>
       </c>
-      <c r="I7" s="22">
+      <c r="I7" s="25">
         <v>25.8</v>
       </c>
-      <c r="J7" s="23">
+      <c r="J7" s="26">
         <v>54.3</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="20">
+      <c r="C8" s="24">
         <v>0.44600000000000001</v>
       </c>
-      <c r="D8" s="20">
+      <c r="D8" s="25">
         <v>0.92200000000000004</v>
       </c>
-      <c r="E8" s="21">
+      <c r="E8" s="25">
         <v>0.53700000000000003</v>
       </c>
-      <c r="F8" s="22">
+      <c r="F8" s="24">
         <v>22.6</v>
       </c>
-      <c r="G8" s="22">
+      <c r="G8" s="25">
         <v>21.6</v>
       </c>
-      <c r="H8" s="22">
+      <c r="H8" s="25">
         <v>15</v>
       </c>
-      <c r="I8" s="22">
+      <c r="I8" s="25">
         <v>33.799999999999997</v>
       </c>
-      <c r="J8" s="23">
+      <c r="J8" s="26">
         <v>19.100000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="20">
+      <c r="C9" s="24">
         <v>0.61499999999999999</v>
       </c>
-      <c r="D9" s="20">
+      <c r="D9" s="25">
         <v>1.004</v>
       </c>
-      <c r="E9" s="21">
+      <c r="E9" s="25">
         <v>0.44500000000000001</v>
       </c>
-      <c r="F9" s="22">
+      <c r="F9" s="24">
         <v>28.7</v>
       </c>
-      <c r="G9" s="22">
+      <c r="G9" s="25">
         <v>26.1</v>
       </c>
-      <c r="H9" s="22">
+      <c r="H9" s="25">
         <v>48.5</v>
       </c>
-      <c r="I9" s="22">
+      <c r="I9" s="25">
         <v>26.2</v>
       </c>
-      <c r="J9" s="23">
+      <c r="J9" s="26">
         <v>10.1</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="20">
+      <c r="C10" s="24">
         <v>0.71299999999999997</v>
       </c>
-      <c r="D10" s="20">
+      <c r="D10" s="25">
         <v>0.94399999999999995</v>
       </c>
-      <c r="E10" s="21">
+      <c r="E10" s="25">
         <v>0.40500000000000003</v>
       </c>
-      <c r="F10" s="22">
+      <c r="F10" s="24">
         <v>25.7</v>
       </c>
-      <c r="G10" s="22">
+      <c r="G10" s="25">
         <v>60</v>
       </c>
-      <c r="H10" s="22">
+      <c r="H10" s="25">
         <v>18.100000000000001</v>
       </c>
-      <c r="I10" s="22">
+      <c r="I10" s="25">
         <v>12.2</v>
       </c>
-      <c r="J10" s="23">
+      <c r="J10" s="26">
         <v>2.2999999999999998</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="19" t="s">
+      <c r="B11" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="15">
+      <c r="C11" s="20">
         <v>0.56499999999999995</v>
       </c>
-      <c r="D11" s="15">
+      <c r="D11" s="21">
         <v>0.96499999999999997</v>
       </c>
-      <c r="E11" s="16">
+      <c r="E11" s="21">
         <v>0.54</v>
       </c>
-      <c r="F11" s="17">
+      <c r="F11" s="20">
         <v>30.4</v>
       </c>
-      <c r="G11" s="17">
+      <c r="G11" s="21">
         <v>34</v>
       </c>
-      <c r="H11" s="17">
+      <c r="H11" s="21">
         <v>26.6</v>
       </c>
-      <c r="I11" s="17">
+      <c r="I11" s="21">
         <v>32.6</v>
       </c>
-      <c r="J11" s="18">
+      <c r="J11" s="22">
         <v>28.2</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="19" t="s">
+      <c r="B12" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="20">
+      <c r="C12" s="28">
         <v>0.59299999999999997</v>
       </c>
-      <c r="D12" s="20">
+      <c r="D12" s="29">
         <v>0.96099999999999997</v>
       </c>
-      <c r="E12" s="21">
+      <c r="E12" s="29">
         <v>0.53200000000000003</v>
       </c>
-      <c r="F12" s="22">
+      <c r="F12" s="28">
         <v>19.5</v>
       </c>
-      <c r="G12" s="22">
+      <c r="G12" s="29">
         <v>18.8</v>
       </c>
-      <c r="H12" s="22">
+      <c r="H12" s="29">
         <v>19.8</v>
       </c>
-      <c r="I12" s="22">
+      <c r="I12" s="29">
         <v>29.9</v>
       </c>
-      <c r="J12" s="23">
+      <c r="J12" s="30">
         <v>8.5</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="24" t="s">
+      <c r="A13" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="B13" s="25" t="s">
+      <c r="B13" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="26">
+      <c r="C13" s="33">
         <v>0.58340000000000003</v>
       </c>
-      <c r="D13" s="26">
+      <c r="D13" s="34">
         <v>0.96189999999999998</v>
       </c>
-      <c r="E13" s="27">
+      <c r="E13" s="35">
         <v>0.51149999999999995</v>
       </c>
-      <c r="F13" s="28">
+      <c r="F13" s="33">
         <v>28.455555555555598</v>
       </c>
-      <c r="G13" s="28">
+      <c r="G13" s="34">
         <v>36.049999999999997</v>
       </c>
-      <c r="H13" s="28">
+      <c r="H13" s="35">
         <v>27.57</v>
       </c>
-      <c r="I13" s="28">
+      <c r="I13" s="34">
         <v>29.755555555555599</v>
       </c>
-      <c r="J13" s="29">
+      <c r="J13" s="36">
         <v>23.61</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="B14" s="19" t="s">
+      <c r="B14" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="20">
+      <c r="C14" s="38">
         <v>0.42599999999999999</v>
       </c>
-      <c r="D14" s="20">
+      <c r="D14" s="39">
         <v>0.93500000000000005</v>
       </c>
-      <c r="E14" s="21">
+      <c r="E14" s="25">
         <v>0.505</v>
       </c>
-      <c r="F14" s="22">
+      <c r="F14" s="38">
         <v>40.799999999999997</v>
       </c>
-      <c r="G14" s="22">
+      <c r="G14" s="39">
         <v>62.5</v>
       </c>
-      <c r="H14" s="22">
+      <c r="H14" s="25">
         <v>25.8</v>
       </c>
-      <c r="I14" s="22">
+      <c r="I14" s="39">
         <v>37.4</v>
       </c>
-      <c r="J14" s="23">
+      <c r="J14" s="26">
         <v>33.6</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="B15" s="19" t="s">
+      <c r="B15" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="20">
+      <c r="C15" s="24">
         <v>0.57599999999999996</v>
       </c>
-      <c r="D15" s="20">
+      <c r="D15" s="25">
         <v>0.88500000000000001</v>
       </c>
-      <c r="E15" s="21">
+      <c r="E15" s="25">
         <v>0.56499999999999995</v>
       </c>
-      <c r="F15" s="22">
+      <c r="F15" s="24">
         <v>66.2</v>
       </c>
-      <c r="G15" s="22">
+      <c r="G15" s="25">
         <v>86.7</v>
       </c>
-      <c r="H15" s="22">
+      <c r="H15" s="25">
         <v>27.7</v>
       </c>
-      <c r="I15" s="22">
+      <c r="I15" s="25">
         <v>83.9</v>
       </c>
-      <c r="J15" s="23">
+      <c r="J15" s="26">
         <v>55.5</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="8" t="s">
+      <c r="A16" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="B16" s="19" t="s">
+      <c r="B16" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="C16" s="20">
+      <c r="C16" s="24">
         <v>0.40400000000000003</v>
       </c>
-      <c r="D16" s="20">
+      <c r="D16" s="25">
         <v>0.81</v>
       </c>
-      <c r="E16" s="21">
+      <c r="E16" s="25">
         <v>0.67200000000000004</v>
       </c>
-      <c r="F16" s="22">
+      <c r="F16" s="24">
         <v>49.1</v>
       </c>
-      <c r="G16" s="22">
+      <c r="G16" s="25">
         <v>65</v>
       </c>
-      <c r="H16" s="22">
+      <c r="H16" s="25">
         <v>31.4</v>
       </c>
-      <c r="I16" s="22">
+      <c r="I16" s="25">
         <v>47.1</v>
       </c>
-      <c r="J16" s="23">
+      <c r="J16" s="26">
         <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="8" t="s">
+      <c r="A17" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="B17" s="30" t="s">
+      <c r="B17" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="C17" s="31">
+      <c r="C17" s="41">
         <v>0.39400000000000002</v>
       </c>
-      <c r="D17" s="31">
+      <c r="D17" s="17">
         <v>0.77</v>
       </c>
-      <c r="E17" s="32">
+      <c r="E17" s="17">
         <v>0.65200000000000002</v>
       </c>
-      <c r="F17" s="33">
+      <c r="F17" s="41">
         <v>45.5</v>
       </c>
-      <c r="G17" s="33">
+      <c r="G17" s="17">
         <v>45.9</v>
       </c>
-      <c r="H17" s="33">
+      <c r="H17" s="17">
         <v>29.6</v>
       </c>
-      <c r="I17" s="33">
+      <c r="I17" s="17">
         <v>80.2</v>
       </c>
-      <c r="J17" s="34">
+      <c r="J17" s="18">
         <v>13.8</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="8" t="s">
+      <c r="A18" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="B18" s="30" t="s">
+      <c r="B18" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="C18" s="31">
+      <c r="C18" s="41">
         <v>0.57099999999999995</v>
       </c>
-      <c r="D18" s="31">
+      <c r="D18" s="17">
         <v>0.93400000000000005</v>
       </c>
-      <c r="E18" s="32">
+      <c r="E18" s="17">
         <v>0.56399999999999995</v>
       </c>
-      <c r="F18" s="33" t="s">
+      <c r="F18" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="G18" s="33">
+      <c r="G18" s="17">
         <v>55</v>
       </c>
-      <c r="H18" s="33" t="s">
+      <c r="H18" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="I18" s="33">
+      <c r="I18" s="17">
         <v>58.1</v>
       </c>
-      <c r="J18" s="34">
+      <c r="J18" s="18">
         <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="8" t="s">
+      <c r="A19" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="B19" s="19" t="s">
+      <c r="B19" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="C19" s="15">
+      <c r="C19" s="20">
         <v>0.47899999999999998</v>
       </c>
-      <c r="D19" s="15">
+      <c r="D19" s="21">
         <v>0.88500000000000001</v>
       </c>
-      <c r="E19" s="16">
+      <c r="E19" s="21">
         <v>0.60099999999999998</v>
       </c>
-      <c r="F19" s="17">
+      <c r="F19" s="20">
         <v>47.1</v>
       </c>
-      <c r="G19" s="17">
+      <c r="G19" s="21">
         <v>52.5</v>
       </c>
-      <c r="H19" s="17">
+      <c r="H19" s="21">
         <v>32.299999999999997</v>
       </c>
-      <c r="I19" s="17">
+      <c r="I19" s="21">
         <v>65.2</v>
       </c>
-      <c r="J19" s="18">
+      <c r="J19" s="22">
         <v>34.700000000000003</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="8" t="s">
+      <c r="A20" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="B20" s="30" t="s">
+      <c r="B20" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="C20" s="31">
+      <c r="C20" s="41">
         <v>0.59599999999999997</v>
       </c>
-      <c r="D20" s="31" t="s">
+      <c r="D20" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="E20" s="32" t="s">
+      <c r="E20" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="F20" s="33" t="s">
+      <c r="F20" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="G20" s="33">
+      <c r="G20" s="17">
         <v>55.5</v>
       </c>
-      <c r="H20" s="33">
+      <c r="H20" s="17">
         <v>39.700000000000003</v>
       </c>
-      <c r="I20" s="33" t="s">
+      <c r="I20" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="J20" s="34" t="s">
+      <c r="J20" s="18" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="8" t="s">
+      <c r="A21" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="B21" s="30" t="s">
+      <c r="B21" s="40" t="s">
         <v>49</v>
       </c>
-      <c r="C21" s="31">
+      <c r="C21" s="41">
         <v>0.70599999999999996</v>
       </c>
-      <c r="D21" s="31">
+      <c r="D21" s="17">
         <v>0.90800000000000003</v>
       </c>
-      <c r="E21" s="32">
+      <c r="E21" s="17">
         <v>0.54100000000000004</v>
       </c>
-      <c r="F21" s="33">
+      <c r="F21" s="41">
         <v>33.4</v>
       </c>
-      <c r="G21" s="33">
+      <c r="G21" s="17">
         <v>41.9</v>
       </c>
-      <c r="H21" s="33">
+      <c r="H21" s="17">
         <v>20.100000000000001</v>
       </c>
-      <c r="I21" s="33">
+      <c r="I21" s="17">
         <v>40.4</v>
       </c>
-      <c r="J21" s="34">
+      <c r="J21" s="18">
         <v>29.7</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="8" t="s">
+      <c r="A22" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="B22" s="19" t="s">
+      <c r="B22" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="C22" s="20">
+      <c r="C22" s="28">
         <v>0.61799999999999999</v>
       </c>
-      <c r="D22" s="20">
+      <c r="D22" s="29">
         <v>0.90700000000000003</v>
       </c>
-      <c r="E22" s="21">
+      <c r="E22" s="29">
         <v>0.49399999999999999</v>
       </c>
-      <c r="F22" s="22" t="s">
+      <c r="F22" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="G22" s="22">
+      <c r="G22" s="29">
         <v>5</v>
       </c>
-      <c r="H22" s="22">
+      <c r="H22" s="29">
         <v>14.9</v>
       </c>
-      <c r="I22" s="22" t="s">
+      <c r="I22" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="J22" s="23" t="s">
+      <c r="J22" s="30" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="24" t="s">
+      <c r="A23" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="B23" s="25" t="s">
+      <c r="B23" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="C23" s="26">
+      <c r="C23" s="33">
         <v>0.53</v>
       </c>
-      <c r="D23" s="26">
+      <c r="D23" s="34">
         <v>0.87924999999999998</v>
       </c>
-      <c r="E23" s="27">
+      <c r="E23" s="35">
         <v>0.57425000000000004</v>
       </c>
-      <c r="F23" s="28">
+      <c r="F23" s="33">
         <v>47.016666666666701</v>
       </c>
-      <c r="G23" s="28">
+      <c r="G23" s="34">
         <v>52.2222222222222</v>
       </c>
-      <c r="H23" s="28">
+      <c r="H23" s="35">
         <v>27.6875</v>
       </c>
-      <c r="I23" s="28">
+      <c r="I23" s="34">
         <v>58.9</v>
       </c>
-      <c r="J23" s="29">
+      <c r="J23" s="36">
         <v>37.757142857142902</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="8" t="s">
+      <c r="A24" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="B24" s="19" t="s">
+      <c r="B24" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="C24" s="20">
+      <c r="C24" s="38">
         <v>0.55800000000000005</v>
       </c>
-      <c r="D24" s="20">
+      <c r="D24" s="39">
         <v>0.89100000000000001</v>
       </c>
-      <c r="E24" s="21" t="s">
+      <c r="E24" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="F24" s="22">
+      <c r="F24" s="38">
         <v>55</v>
       </c>
-      <c r="G24" s="22">
+      <c r="G24" s="39">
         <v>87.2</v>
       </c>
-      <c r="H24" s="22">
+      <c r="H24" s="25">
         <v>30.6</v>
       </c>
-      <c r="I24" s="22">
+      <c r="I24" s="39">
         <v>30.7</v>
       </c>
-      <c r="J24" s="23">
+      <c r="J24" s="26">
         <v>60</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="8" t="s">
+      <c r="A25" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="B25" s="19" t="s">
+      <c r="B25" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="C25" s="20">
+      <c r="C25" s="24">
         <v>0.50900000000000001</v>
       </c>
-      <c r="D25" s="20" t="s">
+      <c r="D25" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="E25" s="21" t="s">
+      <c r="E25" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="F25" s="22" t="s">
+      <c r="F25" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="G25" s="22">
+      <c r="G25" s="25">
         <v>79.900000000000006</v>
       </c>
-      <c r="H25" s="22" t="s">
+      <c r="H25" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="I25" s="22">
+      <c r="I25" s="25">
         <v>44.8</v>
       </c>
-      <c r="J25" s="23">
+      <c r="J25" s="26">
         <v>36.1</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="8" t="s">
+      <c r="A26" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="B26" s="19" t="s">
+      <c r="B26" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="C26" s="20">
+      <c r="C26" s="24">
         <v>0.49199999999999999</v>
       </c>
-      <c r="D26" s="20" t="s">
+      <c r="D26" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="E26" s="21" t="s">
+      <c r="E26" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="F26" s="22" t="s">
+      <c r="F26" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="G26" s="22">
+      <c r="G26" s="25">
         <v>55.1</v>
       </c>
-      <c r="H26" s="22" t="s">
+      <c r="H26" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="I26" s="22" t="s">
+      <c r="I26" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="J26" s="23" t="s">
+      <c r="J26" s="26" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="8" t="s">
+      <c r="A27" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="B27" s="19" t="s">
+      <c r="B27" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="C27" s="20">
+      <c r="C27" s="24">
         <v>0.498</v>
       </c>
-      <c r="D27" s="20">
+      <c r="D27" s="25">
         <v>0.92100000000000004</v>
       </c>
-      <c r="E27" s="21">
+      <c r="E27" s="25">
         <v>0.52</v>
       </c>
-      <c r="F27" s="22">
+      <c r="F27" s="24">
         <v>31.4</v>
       </c>
-      <c r="G27" s="22">
+      <c r="G27" s="25">
         <v>40.6</v>
       </c>
-      <c r="H27" s="22">
+      <c r="H27" s="25">
         <v>23.8</v>
       </c>
-      <c r="I27" s="22">
+      <c r="I27" s="25">
         <v>40.700000000000003</v>
       </c>
-      <c r="J27" s="23">
+      <c r="J27" s="26">
         <v>18.7</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="8" t="s">
+      <c r="A28" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="B28" s="19" t="s">
+      <c r="B28" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="C28" s="20">
+      <c r="C28" s="24">
         <v>0.57499999999999996</v>
       </c>
-      <c r="D28" s="20">
+      <c r="D28" s="25">
         <v>0.94099999999999995</v>
       </c>
-      <c r="E28" s="21">
+      <c r="E28" s="25">
         <v>0.50600000000000001</v>
       </c>
-      <c r="F28" s="22">
+      <c r="F28" s="24">
         <v>35.6</v>
       </c>
-      <c r="G28" s="22">
+      <c r="G28" s="25">
         <v>40.1</v>
       </c>
-      <c r="H28" s="22">
+      <c r="H28" s="25">
         <v>30.6</v>
       </c>
-      <c r="I28" s="22">
+      <c r="I28" s="25">
         <v>44.7</v>
       </c>
-      <c r="J28" s="23">
+      <c r="J28" s="26">
         <v>25.8</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="8" t="s">
+      <c r="A29" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="B29" s="19" t="s">
+      <c r="B29" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="C29" s="20">
+      <c r="C29" s="24">
         <v>0.501</v>
       </c>
-      <c r="D29" s="20">
+      <c r="D29" s="25">
         <v>0.95599999999999996</v>
       </c>
-      <c r="E29" s="21">
+      <c r="E29" s="25">
         <v>0.55600000000000005</v>
       </c>
-      <c r="F29" s="22">
+      <c r="F29" s="24">
         <v>41.4</v>
       </c>
-      <c r="G29" s="22">
+      <c r="G29" s="25">
         <v>43.3</v>
       </c>
-      <c r="H29" s="22">
+      <c r="H29" s="25">
         <v>30.9</v>
       </c>
-      <c r="I29" s="22">
+      <c r="I29" s="25">
         <v>39.200000000000003</v>
       </c>
-      <c r="J29" s="23">
+      <c r="J29" s="26">
         <v>51</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="8" t="s">
+      <c r="A30" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="B30" s="19" t="s">
+      <c r="B30" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="C30" s="20">
+      <c r="C30" s="24">
         <v>0.80200000000000005</v>
       </c>
-      <c r="D30" s="20">
+      <c r="D30" s="25">
         <v>0.97299999999999998</v>
       </c>
-      <c r="E30" s="21">
+      <c r="E30" s="25">
         <v>0.34699999999999998</v>
       </c>
-      <c r="F30" s="22" t="s">
+      <c r="F30" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="G30" s="22">
+      <c r="G30" s="25">
         <v>47.1</v>
       </c>
-      <c r="H30" s="22" t="s">
+      <c r="H30" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="I30" s="22">
+      <c r="I30" s="25">
         <v>6.1</v>
       </c>
-      <c r="J30" s="23">
+      <c r="J30" s="26">
         <v>37.4</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="8" t="s">
+      <c r="A31" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="B31" s="19" t="s">
+      <c r="B31" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="C31" s="20">
+      <c r="C31" s="24">
         <v>0.53400000000000003</v>
       </c>
-      <c r="D31" s="20">
+      <c r="D31" s="25">
         <v>0.95399999999999996</v>
       </c>
-      <c r="E31" s="21">
+      <c r="E31" s="25">
         <v>0.38800000000000001</v>
       </c>
-      <c r="F31" s="22">
+      <c r="F31" s="24">
         <v>25.7</v>
       </c>
-      <c r="G31" s="22">
+      <c r="G31" s="25">
         <v>35.4</v>
       </c>
-      <c r="H31" s="22">
+      <c r="H31" s="25">
         <v>17.3</v>
       </c>
-      <c r="I31" s="22">
+      <c r="I31" s="25">
         <v>39.6</v>
       </c>
-      <c r="J31" s="23">
+      <c r="J31" s="26">
         <v>6.9</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="8" t="s">
+      <c r="A32" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="B32" s="19" t="s">
+      <c r="B32" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="C32" s="20">
+      <c r="C32" s="24">
         <v>0.78500000000000003</v>
       </c>
-      <c r="D32" s="20" t="s">
+      <c r="D32" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="E32" s="21" t="s">
+      <c r="E32" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="F32" s="22" t="s">
+      <c r="F32" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="G32" s="22">
+      <c r="G32" s="25">
         <v>8.6</v>
       </c>
-      <c r="H32" s="22" t="s">
+      <c r="H32" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="I32" s="22" t="s">
+      <c r="I32" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="J32" s="23" t="s">
+      <c r="J32" s="26" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="8" t="s">
+      <c r="A33" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="B33" s="19" t="s">
+      <c r="B33" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="C33" s="20" t="s">
+      <c r="C33" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D33" s="20" t="s">
+      <c r="D33" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="E33" s="21" t="s">
+      <c r="E33" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="F33" s="22">
+      <c r="F33" s="24">
         <v>51.5</v>
       </c>
-      <c r="G33" s="22">
+      <c r="G33" s="25">
         <v>71.099999999999994</v>
       </c>
-      <c r="H33" s="22">
+      <c r="H33" s="25">
         <v>36.9</v>
       </c>
-      <c r="I33" s="22">
+      <c r="I33" s="25">
         <v>40.799999999999997</v>
       </c>
-      <c r="J33" s="23">
+      <c r="J33" s="26">
         <v>53.6</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="8" t="s">
+      <c r="A34" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="B34" s="30" t="s">
+      <c r="B34" s="40" t="s">
         <v>74</v>
       </c>
-      <c r="C34" s="31">
+      <c r="C34" s="41">
         <v>0.38500000000000001</v>
       </c>
-      <c r="D34" s="31">
+      <c r="D34" s="17">
         <v>0.84299999999999997</v>
       </c>
-      <c r="E34" s="32">
+      <c r="E34" s="17">
         <v>0.58699999999999997</v>
       </c>
-      <c r="F34" s="33">
+      <c r="F34" s="41">
         <v>38.4</v>
       </c>
-      <c r="G34" s="33">
+      <c r="G34" s="17">
         <v>60.5</v>
       </c>
-      <c r="H34" s="33">
+      <c r="H34" s="17">
         <v>37.6</v>
       </c>
-      <c r="I34" s="33">
+      <c r="I34" s="17">
         <v>33.1</v>
       </c>
-      <c r="J34" s="34">
+      <c r="J34" s="18">
         <v>17.8</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="8" t="s">
+      <c r="A35" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="B35" s="19" t="s">
+      <c r="B35" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="C35" s="20">
+      <c r="C35" s="24">
         <v>0.50800000000000001</v>
       </c>
-      <c r="D35" s="20">
+      <c r="D35" s="25">
         <v>0.87</v>
       </c>
-      <c r="E35" s="21">
+      <c r="E35" s="25">
         <v>0.55300000000000005</v>
       </c>
-      <c r="F35" s="22">
+      <c r="F35" s="24">
         <v>63.3</v>
       </c>
-      <c r="G35" s="22">
+      <c r="G35" s="25">
         <v>89.9</v>
       </c>
-      <c r="H35" s="22">
+      <c r="H35" s="25">
         <v>33</v>
       </c>
-      <c r="I35" s="22">
+      <c r="I35" s="25">
         <v>86.8</v>
       </c>
-      <c r="J35" s="23">
+      <c r="J35" s="26">
         <v>26.5</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="8" t="s">
+      <c r="A36" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="B36" s="19" t="s">
+      <c r="B36" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="C36" s="20">
+      <c r="C36" s="24">
         <v>0.54900000000000004</v>
       </c>
-      <c r="D36" s="20">
+      <c r="D36" s="25">
         <v>0.94299999999999995</v>
       </c>
-      <c r="E36" s="21">
+      <c r="E36" s="25">
         <v>0.56000000000000005</v>
       </c>
-      <c r="F36" s="22">
+      <c r="F36" s="24">
         <v>50</v>
       </c>
-      <c r="G36" s="22">
+      <c r="G36" s="25">
         <v>86.9</v>
       </c>
-      <c r="H36" s="22">
+      <c r="H36" s="25">
         <v>34.9</v>
       </c>
-      <c r="I36" s="22">
+      <c r="I36" s="25">
         <v>31.4</v>
       </c>
-      <c r="J36" s="23">
+      <c r="J36" s="26">
         <v>35.1</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="8" t="s">
+      <c r="A37" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="B37" s="19" t="s">
+      <c r="B37" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="C37" s="20">
+      <c r="C37" s="28">
         <v>0.52500000000000002</v>
       </c>
-      <c r="D37" s="20">
+      <c r="D37" s="29">
         <v>0.92700000000000005</v>
       </c>
-      <c r="E37" s="21">
+      <c r="E37" s="29">
         <v>0.53</v>
       </c>
-      <c r="F37" s="22">
+      <c r="F37" s="28">
         <v>28.9</v>
       </c>
-      <c r="G37" s="22">
+      <c r="G37" s="29">
         <v>40.799999999999997</v>
       </c>
-      <c r="H37" s="22">
+      <c r="H37" s="29">
         <v>37.700000000000003</v>
       </c>
-      <c r="I37" s="22">
+      <c r="I37" s="29">
         <v>28.2</v>
       </c>
-      <c r="J37" s="23">
+      <c r="J37" s="30">
         <v>5.0999999999999996</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="24" t="s">
+      <c r="A38" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="B38" s="25" t="s">
+      <c r="B38" s="32" t="s">
         <v>81</v>
       </c>
-      <c r="C38" s="26">
+      <c r="C38" s="33">
         <v>0.55546153846154001</v>
       </c>
-      <c r="D38" s="26">
+      <c r="D38" s="34">
         <v>0.92190000000000005</v>
       </c>
-      <c r="E38" s="27">
+      <c r="E38" s="35">
         <v>0.50522222222222002</v>
       </c>
-      <c r="F38" s="28">
+      <c r="F38" s="33">
         <v>42.12</v>
       </c>
-      <c r="G38" s="28">
+      <c r="G38" s="34">
         <v>56.178571428571402</v>
       </c>
-      <c r="H38" s="28">
+      <c r="H38" s="35">
         <v>31.33</v>
       </c>
-      <c r="I38" s="28">
+      <c r="I38" s="34">
         <v>38.841666666666697</v>
       </c>
-      <c r="J38" s="29">
+      <c r="J38" s="36">
         <v>31.1666666666667</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" s="8" t="s">
+      <c r="A39" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="B39" s="35" t="s">
+      <c r="B39" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="C39" s="31">
+      <c r="C39" s="15">
         <v>0.745</v>
       </c>
-      <c r="D39" s="31">
+      <c r="D39" s="16">
         <v>0.88</v>
       </c>
-      <c r="E39" s="32">
+      <c r="E39" s="17">
         <v>0.499</v>
       </c>
-      <c r="F39" s="33" t="s">
+      <c r="F39" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="G39" s="33">
+      <c r="G39" s="16">
         <v>79.900000000000006</v>
       </c>
-      <c r="H39" s="33" t="s">
+      <c r="H39" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="I39" s="33">
+      <c r="I39" s="16">
         <v>46.5</v>
       </c>
-      <c r="J39" s="34">
+      <c r="J39" s="18">
         <v>61.2</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" s="8" t="s">
+      <c r="A40" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="B40" s="19" t="s">
+      <c r="B40" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="C40" s="20">
+      <c r="C40" s="24">
         <v>0.73099999999999998</v>
       </c>
-      <c r="D40" s="20">
+      <c r="D40" s="25">
         <v>0.88200000000000001</v>
       </c>
-      <c r="E40" s="21">
+      <c r="E40" s="25">
         <v>0.443</v>
       </c>
-      <c r="F40" s="22">
+      <c r="F40" s="24">
         <v>57.1</v>
       </c>
-      <c r="G40" s="22">
+      <c r="G40" s="25">
         <v>81.400000000000006</v>
       </c>
-      <c r="H40" s="22">
+      <c r="H40" s="25">
         <v>31.1</v>
       </c>
-      <c r="I40" s="22">
+      <c r="I40" s="25">
         <v>46.7</v>
       </c>
-      <c r="J40" s="23">
+      <c r="J40" s="26">
         <v>62.2</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" s="8" t="s">
+      <c r="A41" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="B41" s="35" t="s">
+      <c r="B41" s="42" t="s">
         <v>87</v>
       </c>
-      <c r="C41" s="31">
+      <c r="C41" s="41">
         <v>0.71799999999999997</v>
       </c>
-      <c r="D41" s="31">
+      <c r="D41" s="17">
         <v>0.97499999999999998</v>
       </c>
-      <c r="E41" s="32">
+      <c r="E41" s="17">
         <v>0.25900000000000001</v>
       </c>
-      <c r="F41" s="33" t="s">
+      <c r="F41" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="G41" s="33">
+      <c r="G41" s="17">
         <v>86.3</v>
       </c>
-      <c r="H41" s="33" t="s">
+      <c r="H41" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="I41" s="33" t="s">
+      <c r="I41" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="J41" s="34">
+      <c r="J41" s="18">
         <v>72.3</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" s="8" t="s">
+      <c r="A42" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="B42" s="35" t="s">
+      <c r="B42" s="42" t="s">
         <v>89</v>
       </c>
-      <c r="C42" s="31">
+      <c r="C42" s="41">
         <v>0.55600000000000005</v>
       </c>
-      <c r="D42" s="31">
+      <c r="D42" s="17">
         <v>0.89</v>
       </c>
-      <c r="E42" s="32">
+      <c r="E42" s="17">
         <v>0.63200000000000001</v>
       </c>
-      <c r="F42" s="33">
+      <c r="F42" s="41">
         <v>67.7</v>
       </c>
-      <c r="G42" s="33">
+      <c r="G42" s="17">
         <v>88</v>
       </c>
-      <c r="H42" s="33">
+      <c r="H42" s="17">
         <v>32.299999999999997</v>
       </c>
-      <c r="I42" s="33">
+      <c r="I42" s="17">
         <v>85.6</v>
       </c>
-      <c r="J42" s="34">
+      <c r="J42" s="18">
         <v>54.8</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" s="8" t="s">
+      <c r="A43" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="B43" s="19" t="s">
+      <c r="B43" s="23" t="s">
         <v>91</v>
       </c>
-      <c r="C43" s="20">
+      <c r="C43" s="24">
         <v>0.68300000000000005</v>
       </c>
-      <c r="D43" s="20">
+      <c r="D43" s="25">
         <v>0.86099999999999999</v>
       </c>
-      <c r="E43" s="21">
+      <c r="E43" s="25">
         <v>0.42499999999999999</v>
       </c>
-      <c r="F43" s="22">
+      <c r="F43" s="24">
         <v>48.8</v>
       </c>
-      <c r="G43" s="22">
+      <c r="G43" s="25">
         <v>73.3</v>
       </c>
-      <c r="H43" s="22">
+      <c r="H43" s="25">
         <v>28.5</v>
       </c>
-      <c r="I43" s="22">
+      <c r="I43" s="25">
         <v>44</v>
       </c>
-      <c r="J43" s="23">
+      <c r="J43" s="26">
         <v>44</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="8" t="s">
+      <c r="A44" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="B44" s="19" t="s">
+      <c r="B44" s="27" t="s">
         <v>93</v>
       </c>
-      <c r="C44" s="20">
+      <c r="C44" s="28">
         <v>0.73099999999999998</v>
       </c>
-      <c r="D44" s="20">
+      <c r="D44" s="29">
         <v>0.93100000000000005</v>
       </c>
-      <c r="E44" s="21">
+      <c r="E44" s="29">
         <v>0.25900000000000001</v>
       </c>
-      <c r="F44" s="22">
+      <c r="F44" s="28">
         <v>49.2</v>
       </c>
-      <c r="G44" s="22">
+      <c r="G44" s="29">
         <v>86.3</v>
       </c>
-      <c r="H44" s="22">
+      <c r="H44" s="29">
         <v>11.1</v>
       </c>
-      <c r="I44" s="22">
+      <c r="I44" s="29">
         <v>37.4</v>
       </c>
-      <c r="J44" s="23">
+      <c r="J44" s="30">
         <v>46.9</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="24" t="s">
+      <c r="A45" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="B45" s="25" t="s">
+      <c r="B45" s="32" t="s">
         <v>94</v>
       </c>
-      <c r="C45" s="26">
+      <c r="C45" s="33">
         <v>0.69399999999999995</v>
       </c>
-      <c r="D45" s="26">
+      <c r="D45" s="34">
         <v>0.90316666666667</v>
       </c>
-      <c r="E45" s="27">
+      <c r="E45" s="43">
         <v>0.41949999999999998</v>
       </c>
-      <c r="F45" s="28">
+      <c r="F45" s="33">
         <v>55.7</v>
       </c>
-      <c r="G45" s="28">
+      <c r="G45" s="34">
         <v>82.533333333333402</v>
       </c>
-      <c r="H45" s="28">
+      <c r="H45" s="43">
         <v>25.75</v>
       </c>
-      <c r="I45" s="28">
+      <c r="I45" s="34">
         <v>52.04</v>
       </c>
-      <c r="J45" s="29">
+      <c r="J45" s="44">
         <v>56.9</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" s="8" t="s">
+      <c r="A46" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="B46" s="19" t="s">
+      <c r="B46" s="37" t="s">
         <v>96</v>
       </c>
-      <c r="C46" s="20">
+      <c r="C46" s="38">
         <v>0.52500000000000002</v>
       </c>
-      <c r="D46" s="20">
+      <c r="D46" s="39">
         <v>0.88</v>
       </c>
-      <c r="E46" s="21">
+      <c r="E46" s="25">
         <v>0.60199999999999998</v>
       </c>
-      <c r="F46" s="22">
+      <c r="F46" s="38">
         <v>34.799999999999997</v>
       </c>
-      <c r="G46" s="22">
+      <c r="G46" s="39">
         <v>22.2</v>
       </c>
-      <c r="H46" s="22">
+      <c r="H46" s="25">
         <v>14.5</v>
       </c>
-      <c r="I46" s="22">
+      <c r="I46" s="39">
         <v>39.1</v>
       </c>
-      <c r="J46" s="23">
+      <c r="J46" s="26">
         <v>57.7</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47" s="8" t="s">
+      <c r="A47" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="B47" s="19" t="s">
+      <c r="B47" s="23" t="s">
         <v>98</v>
       </c>
-      <c r="C47" s="20">
+      <c r="C47" s="24">
         <v>0.44900000000000001</v>
       </c>
-      <c r="D47" s="20">
+      <c r="D47" s="25">
         <v>0.90300000000000002</v>
       </c>
-      <c r="E47" s="21">
+      <c r="E47" s="25">
         <v>0.621</v>
       </c>
-      <c r="F47" s="22">
+      <c r="F47" s="24">
         <v>25.6</v>
       </c>
-      <c r="G47" s="22">
+      <c r="G47" s="25">
         <v>29.2</v>
       </c>
-      <c r="H47" s="22">
+      <c r="H47" s="25">
         <v>23</v>
       </c>
-      <c r="I47" s="22">
+      <c r="I47" s="25">
         <v>30.5</v>
       </c>
-      <c r="J47" s="23">
+      <c r="J47" s="26">
         <v>19.399999999999999</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A48" s="8" t="s">
+      <c r="A48" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="B48" s="35" t="s">
+      <c r="B48" s="42" t="s">
         <v>100</v>
       </c>
-      <c r="C48" s="31">
+      <c r="C48" s="41">
         <v>0.66200000000000003</v>
       </c>
-      <c r="D48" s="31">
+      <c r="D48" s="17">
         <v>0.98099999999999998</v>
       </c>
-      <c r="E48" s="32">
+      <c r="E48" s="17">
         <v>0.34899999999999998</v>
       </c>
-      <c r="F48" s="33" t="s">
+      <c r="F48" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="G48" s="33">
+      <c r="G48" s="17">
         <v>8.8000000000000007</v>
       </c>
-      <c r="H48" s="33">
+      <c r="H48" s="17">
         <v>16.3</v>
       </c>
-      <c r="I48" s="33" t="s">
+      <c r="I48" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="J48" s="34" t="s">
+      <c r="J48" s="18" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49" s="8" t="s">
+      <c r="A49" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="B49" s="19" t="s">
+      <c r="B49" s="23" t="s">
         <v>102</v>
       </c>
-      <c r="C49" s="20">
+      <c r="C49" s="24">
         <v>0.55000000000000004</v>
       </c>
-      <c r="D49" s="20">
+      <c r="D49" s="25">
         <v>0.88700000000000001</v>
       </c>
-      <c r="E49" s="21">
+      <c r="E49" s="25">
         <v>0.61299999999999999</v>
       </c>
-      <c r="F49" s="22">
+      <c r="F49" s="24">
         <v>17.899999999999999</v>
       </c>
-      <c r="G49" s="22">
+      <c r="G49" s="25">
         <v>12.4</v>
       </c>
-      <c r="H49" s="22">
+      <c r="H49" s="25">
         <v>28.6</v>
       </c>
-      <c r="I49" s="22">
+      <c r="I49" s="25">
         <v>16.399999999999999</v>
       </c>
-      <c r="J49" s="23">
+      <c r="J49" s="26">
         <v>13.3</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50" s="8" t="s">
+      <c r="A50" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="B50" s="19" t="s">
+      <c r="B50" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="C50" s="20">
+      <c r="C50" s="24">
         <v>0.5</v>
       </c>
-      <c r="D50" s="20">
+      <c r="D50" s="25">
         <v>0.92400000000000004</v>
       </c>
-      <c r="E50" s="21">
+      <c r="E50" s="25">
         <v>0.61099999999999999</v>
       </c>
-      <c r="F50" s="22">
+      <c r="F50" s="24">
         <v>48</v>
       </c>
-      <c r="G50" s="22">
+      <c r="G50" s="25">
         <v>66.5</v>
       </c>
-      <c r="H50" s="22">
+      <c r="H50" s="25">
         <v>31.6</v>
       </c>
-      <c r="I50" s="22">
+      <c r="I50" s="25">
         <v>47.4</v>
       </c>
-      <c r="J50" s="23">
+      <c r="J50" s="26">
         <v>43.5</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A51" s="8" t="s">
+      <c r="A51" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="B51" s="14" t="s">
+      <c r="B51" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="C51" s="15">
+      <c r="C51" s="20">
         <v>0.63200000000000001</v>
       </c>
-      <c r="D51" s="15">
+      <c r="D51" s="21">
         <v>0.94599999999999995</v>
       </c>
-      <c r="E51" s="16">
+      <c r="E51" s="21">
         <v>0.52900000000000003</v>
       </c>
-      <c r="F51" s="17">
+      <c r="F51" s="20">
         <v>38.5</v>
       </c>
-      <c r="G51" s="17">
+      <c r="G51" s="21">
         <v>44.3</v>
       </c>
-      <c r="H51" s="17">
+      <c r="H51" s="21">
         <v>28.5</v>
       </c>
-      <c r="I51" s="17">
+      <c r="I51" s="21">
         <v>26</v>
       </c>
-      <c r="J51" s="18">
+      <c r="J51" s="22">
         <v>52.6</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A52" s="8" t="s">
+      <c r="A52" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="B52" s="19" t="s">
+      <c r="B52" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="C52" s="20">
+      <c r="C52" s="24">
         <v>0.46500000000000002</v>
       </c>
-      <c r="D52" s="20">
+      <c r="D52" s="25">
         <v>0.85</v>
       </c>
-      <c r="E52" s="21">
+      <c r="E52" s="25">
         <v>0.621</v>
       </c>
-      <c r="F52" s="22">
+      <c r="F52" s="24">
         <v>34.299999999999997</v>
       </c>
-      <c r="G52" s="22">
+      <c r="G52" s="25">
         <v>56</v>
       </c>
-      <c r="H52" s="22">
+      <c r="H52" s="25">
         <v>28.6</v>
       </c>
-      <c r="I52" s="22">
+      <c r="I52" s="25">
         <v>34.6</v>
       </c>
-      <c r="J52" s="23">
+      <c r="J52" s="26">
         <v>13.2</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A53" s="8" t="s">
+      <c r="A53" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="B53" s="19" t="s">
+      <c r="B53" s="23" t="s">
         <v>110</v>
       </c>
-      <c r="C53" s="20">
+      <c r="C53" s="24">
         <v>0.48299999999999998</v>
       </c>
-      <c r="D53" s="20">
+      <c r="D53" s="25">
         <v>0.86699999999999999</v>
       </c>
-      <c r="E53" s="21">
+      <c r="E53" s="25">
         <v>0.627</v>
       </c>
-      <c r="F53" s="22" t="s">
+      <c r="F53" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="G53" s="22">
+      <c r="G53" s="25">
         <v>42.1</v>
       </c>
-      <c r="H53" s="22" t="s">
+      <c r="H53" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="I53" s="22" t="s">
+      <c r="I53" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="J53" s="23" t="s">
+      <c r="J53" s="26" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A54" s="8" t="s">
+      <c r="A54" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="B54" s="19" t="s">
+      <c r="B54" s="23" t="s">
         <v>112</v>
       </c>
-      <c r="C54" s="20">
+      <c r="C54" s="24">
         <v>0.48099999999999998</v>
       </c>
-      <c r="D54" s="20">
+      <c r="D54" s="25">
         <v>0.871</v>
       </c>
-      <c r="E54" s="21">
+      <c r="E54" s="25">
         <v>0.64800000000000002</v>
       </c>
-      <c r="F54" s="22">
+      <c r="F54" s="24">
         <v>40.1</v>
       </c>
-      <c r="G54" s="22">
+      <c r="G54" s="25">
         <v>59.8</v>
       </c>
-      <c r="H54" s="22">
+      <c r="H54" s="25">
         <v>46.3</v>
       </c>
-      <c r="I54" s="22">
+      <c r="I54" s="25">
         <v>29.1</v>
       </c>
-      <c r="J54" s="23">
+      <c r="J54" s="26">
         <v>20.6</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A55" s="8" t="s">
+      <c r="A55" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="B55" s="19" t="s">
+      <c r="B55" s="23" t="s">
         <v>114</v>
       </c>
-      <c r="C55" s="20">
+      <c r="C55" s="24">
         <v>0.42799999999999999</v>
       </c>
-      <c r="D55" s="20">
+      <c r="D55" s="25">
         <v>0.88700000000000001</v>
       </c>
-      <c r="E55" s="21">
+      <c r="E55" s="25">
         <v>0.61299999999999999</v>
       </c>
-      <c r="F55" s="22">
+      <c r="F55" s="24">
         <v>52.9</v>
       </c>
-      <c r="G55" s="22">
+      <c r="G55" s="25">
         <v>69.400000000000006</v>
       </c>
-      <c r="H55" s="22">
+      <c r="H55" s="25">
         <v>55.6</v>
       </c>
-      <c r="I55" s="22">
+      <c r="I55" s="25">
         <v>39.200000000000003</v>
       </c>
-      <c r="J55" s="23">
+      <c r="J55" s="26">
         <v>44.9</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A56" s="8" t="s">
+      <c r="A56" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="B56" s="19" t="s">
+      <c r="B56" s="23" t="s">
         <v>116</v>
       </c>
-      <c r="C56" s="20">
+      <c r="C56" s="24">
         <v>0.4</v>
       </c>
-      <c r="D56" s="20">
+      <c r="D56" s="25">
         <v>0.83499999999999996</v>
       </c>
-      <c r="E56" s="21">
+      <c r="E56" s="25">
         <v>0.61099999999999999</v>
       </c>
-      <c r="F56" s="22">
+      <c r="F56" s="24">
         <v>60.3</v>
       </c>
-      <c r="G56" s="22">
+      <c r="G56" s="25">
         <v>84.1</v>
       </c>
-      <c r="H56" s="22">
+      <c r="H56" s="25">
         <v>33.799999999999997</v>
       </c>
-      <c r="I56" s="22">
+      <c r="I56" s="25">
         <v>84.6</v>
       </c>
-      <c r="J56" s="23">
+      <c r="J56" s="26">
         <v>23</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A57" s="8" t="s">
+      <c r="A57" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="B57" s="19" t="s">
+      <c r="B57" s="23" t="s">
         <v>118</v>
       </c>
-      <c r="C57" s="20">
+      <c r="C57" s="24">
         <v>0.53500000000000003</v>
       </c>
-      <c r="D57" s="20">
+      <c r="D57" s="25">
         <v>0.86299999999999999</v>
       </c>
-      <c r="E57" s="21">
+      <c r="E57" s="25">
         <v>0.68</v>
       </c>
-      <c r="F57" s="22">
+      <c r="F57" s="24">
         <v>42.9</v>
       </c>
-      <c r="G57" s="22">
+      <c r="G57" s="25">
         <v>56.5</v>
       </c>
-      <c r="H57" s="22">
+      <c r="H57" s="25">
         <v>28.5</v>
       </c>
-      <c r="I57" s="22">
+      <c r="I57" s="25">
         <v>36.4</v>
       </c>
-      <c r="J57" s="23">
+      <c r="J57" s="26">
         <v>48</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A58" s="8" t="s">
+      <c r="A58" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="B58" s="19" t="s">
+      <c r="B58" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="C58" s="20">
+      <c r="C58" s="24">
         <v>0.51100000000000001</v>
       </c>
-      <c r="D58" s="20">
+      <c r="D58" s="25">
         <v>0.874</v>
       </c>
-      <c r="E58" s="21">
+      <c r="E58" s="25">
         <v>0.53</v>
       </c>
-      <c r="F58" s="22">
+      <c r="F58" s="24">
         <v>41.8</v>
       </c>
-      <c r="G58" s="22">
+      <c r="G58" s="25">
         <v>74.900000000000006</v>
       </c>
-      <c r="H58" s="22">
+      <c r="H58" s="25">
         <v>37.9</v>
       </c>
-      <c r="I58" s="22">
+      <c r="I58" s="25">
         <v>36.299999999999997</v>
       </c>
-      <c r="J58" s="23">
+      <c r="J58" s="26">
         <v>6.1</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A59" s="8" t="s">
+      <c r="A59" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="B59" s="19" t="s">
+      <c r="B59" s="23" t="s">
         <v>122</v>
       </c>
-      <c r="C59" s="20">
+      <c r="C59" s="24">
         <v>0.47699999999999998</v>
       </c>
-      <c r="D59" s="20">
+      <c r="D59" s="25">
         <v>0.89300000000000002</v>
       </c>
-      <c r="E59" s="21">
+      <c r="E59" s="25">
         <v>0.63300000000000001</v>
       </c>
-      <c r="F59" s="22">
+      <c r="F59" s="24">
         <v>48</v>
       </c>
-      <c r="G59" s="22">
+      <c r="G59" s="25">
         <v>41.9</v>
       </c>
-      <c r="H59" s="22">
+      <c r="H59" s="25">
         <v>47.8</v>
       </c>
-      <c r="I59" s="22">
+      <c r="I59" s="25">
         <v>51</v>
       </c>
-      <c r="J59" s="23">
+      <c r="J59" s="26">
         <v>51.1</v>
       </c>
     </row>
     <row r="60" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="8" t="s">
+      <c r="A60" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="B60" s="14" t="s">
+      <c r="B60" s="45" t="s">
         <v>124</v>
       </c>
-      <c r="C60" s="15">
+      <c r="C60" s="46">
         <v>0.53900000000000003</v>
       </c>
-      <c r="D60" s="15">
+      <c r="D60" s="47">
         <v>0.84899999999999998</v>
       </c>
-      <c r="E60" s="16">
+      <c r="E60" s="47">
         <v>0.57999999999999996</v>
       </c>
-      <c r="F60" s="17">
+      <c r="F60" s="46">
         <v>38.299999999999997</v>
       </c>
-      <c r="G60" s="17">
+      <c r="G60" s="47">
         <v>51.1</v>
       </c>
-      <c r="H60" s="17">
+      <c r="H60" s="47">
         <v>28</v>
       </c>
-      <c r="I60" s="17">
+      <c r="I60" s="47">
         <v>18.600000000000001</v>
       </c>
-      <c r="J60" s="18">
+      <c r="J60" s="48">
         <v>51.4</v>
       </c>
     </row>
     <row r="61" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="24" t="s">
+      <c r="A61" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="B61" s="25" t="s">
+      <c r="B61" s="32" t="s">
         <v>125</v>
       </c>
-      <c r="C61" s="26">
+      <c r="C61" s="33">
         <v>0.50913333333333</v>
       </c>
-      <c r="D61" s="26">
+      <c r="D61" s="34">
         <v>0.88733333333332998</v>
       </c>
-      <c r="E61" s="27">
+      <c r="E61" s="43">
         <v>0.59119999999999995</v>
       </c>
-      <c r="F61" s="28">
+      <c r="F61" s="33">
         <v>40.2615384615385</v>
       </c>
-      <c r="G61" s="28">
+      <c r="G61" s="34">
         <v>47.946666666666701</v>
       </c>
-      <c r="H61" s="28">
+      <c r="H61" s="43">
         <v>32.071428571428598</v>
       </c>
-      <c r="I61" s="28">
+      <c r="I61" s="34">
         <v>37.630769230769197</v>
       </c>
-      <c r="J61" s="29">
+      <c r="J61" s="44">
         <v>34.2153846153846</v>
       </c>
     </row>
     <row r="62" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="36" t="s">
+      <c r="A62" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="B62" s="37" t="s">
+      <c r="B62" s="50" t="s">
         <v>126</v>
       </c>
-      <c r="C62" s="38">
+      <c r="C62" s="51">
         <v>0.55898113207546996</v>
       </c>
-      <c r="D62" s="38">
+      <c r="D62" s="52">
         <v>0.91022448979591997</v>
       </c>
-      <c r="E62" s="39">
+      <c r="E62" s="52">
         <v>0.53418750000000004</v>
       </c>
-      <c r="F62" s="40">
+      <c r="F62" s="51">
         <v>40.6095238095238</v>
       </c>
-      <c r="G62" s="40">
+      <c r="G62" s="52">
         <v>52.433333333333401</v>
       </c>
-      <c r="H62" s="40">
+      <c r="H62" s="52">
         <v>29.619565217391301</v>
       </c>
-      <c r="I62" s="40">
+      <c r="I62" s="52">
         <v>41.208695652173901</v>
       </c>
-      <c r="J62" s="41">
+      <c r="J62" s="53">
         <v>34.595833333333303</v>
       </c>
     </row>
     <row r="63" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="36" t="s">
+      <c r="A63" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="B63" s="42" t="s">
+      <c r="B63" s="54" t="s">
         <v>127</v>
       </c>
-      <c r="C63" s="43">
+      <c r="C63" s="55">
         <v>0.78188970588234996</v>
       </c>
-      <c r="D63" s="43">
+      <c r="D63" s="56">
         <v>0.96252066115703006</v>
       </c>
-      <c r="E63" s="44">
+      <c r="E63" s="52">
         <v>0.26969672131147998</v>
       </c>
-      <c r="F63" s="45">
+      <c r="F63" s="55">
         <v>25.314893617021301</v>
       </c>
-      <c r="G63" s="45">
+      <c r="G63" s="56">
         <v>31.188333333333301</v>
       </c>
-      <c r="H63" s="45">
+      <c r="H63" s="52">
         <v>26.821153846153798</v>
       </c>
-      <c r="I63" s="45">
+      <c r="I63" s="56">
         <v>22.7</v>
       </c>
-      <c r="J63" s="46">
+      <c r="J63" s="53">
         <v>26.0304761904762</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A64" s="47" t="s">
+      <c r="A64" s="57" t="s">
         <v>32</v>
       </c>
-      <c r="B64" s="48" t="s">
+      <c r="B64" s="58" t="s">
         <v>128</v>
       </c>
-      <c r="C64" s="38">
+      <c r="C64" s="59">
         <v>0.74048484848484997</v>
       </c>
-      <c r="D64" s="38">
+      <c r="D64" s="60">
         <v>0.98024999999999995</v>
       </c>
-      <c r="E64" s="39">
+      <c r="E64" s="56">
         <v>0.37751724137930998</v>
       </c>
-      <c r="F64" s="40">
+      <c r="F64" s="59">
         <v>21.9136363636364</v>
       </c>
-      <c r="G64" s="40">
+      <c r="G64" s="60">
         <v>22.226666666666699</v>
       </c>
-      <c r="H64" s="40">
+      <c r="H64" s="56">
         <v>26.376000000000001</v>
       </c>
-      <c r="I64" s="40">
+      <c r="I64" s="60">
         <v>23.236363636363599</v>
       </c>
-      <c r="J64" s="41">
+      <c r="J64" s="61">
         <v>17.616</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A65" s="47" t="s">
+      <c r="A65" s="57" t="s">
         <v>32</v>
       </c>
-      <c r="B65" s="37" t="s">
+      <c r="B65" s="54" t="s">
         <v>129</v>
       </c>
-      <c r="C65" s="49">
+      <c r="C65" s="62">
         <v>0.67203448275861999</v>
       </c>
-      <c r="D65" s="49">
+      <c r="D65" s="63">
         <v>0.90403448275861997</v>
       </c>
-      <c r="E65" s="50">
+      <c r="E65" s="63">
         <v>0.41882758620690003</v>
       </c>
-      <c r="F65" s="51">
+      <c r="F65" s="62">
         <v>41.763636363636401</v>
       </c>
-      <c r="G65" s="51">
+      <c r="G65" s="63">
         <v>53.996428571428602</v>
       </c>
-      <c r="H65" s="51">
+      <c r="H65" s="63">
         <v>35.723999999999997</v>
       </c>
-      <c r="I65" s="51">
+      <c r="I65" s="63">
         <v>36.107407407407401</v>
       </c>
-      <c r="J65" s="52">
+      <c r="J65" s="64">
         <v>40.216000000000001</v>
       </c>
     </row>
     <row r="66" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="47" t="s">
+      <c r="A66" s="57" t="s">
         <v>32</v>
       </c>
-      <c r="B66" s="53" t="s">
+      <c r="B66" s="65" t="s">
         <v>130</v>
       </c>
-      <c r="C66" s="54">
+      <c r="C66" s="66">
         <v>0.71938095238095001</v>
       </c>
-      <c r="D66" s="54">
+      <c r="D66" s="67">
         <v>0.94744705882352998</v>
       </c>
-      <c r="E66" s="55">
+      <c r="E66" s="67">
         <v>0.34437647058824</v>
       </c>
-      <c r="F66" s="56">
+      <c r="F66" s="66">
         <v>30.038235294117701</v>
       </c>
-      <c r="G66" s="56">
+      <c r="G66" s="67">
         <v>37.781609195402297</v>
       </c>
-      <c r="H66" s="56">
+      <c r="H66" s="67">
         <v>27.6793333333333</v>
       </c>
-      <c r="I66" s="56">
+      <c r="I66" s="67">
         <v>28.301315789473701</v>
       </c>
-      <c r="J66" s="57">
+      <c r="J66" s="68">
         <v>28.717647058823498</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A67" s="47" t="s">
+      <c r="A67" s="57" t="s">
         <v>32</v>
       </c>
-      <c r="B67" s="58" t="s">
+      <c r="B67" s="54" t="s">
         <v>131</v>
       </c>
-      <c r="C67" s="59">
+      <c r="C67" s="62">
         <v>0.58194999999999997</v>
       </c>
-      <c r="D67" s="59">
+      <c r="D67" s="63">
         <v>0.93652941176471005</v>
       </c>
-      <c r="E67" s="60">
+      <c r="E67" s="63">
         <v>0.4770625</v>
       </c>
-      <c r="F67" s="61">
+      <c r="F67" s="62">
         <v>40.6533333333333</v>
       </c>
-      <c r="G67" s="61">
+      <c r="G67" s="63">
         <v>53.404761904761898</v>
       </c>
-      <c r="H67" s="61">
+      <c r="H67" s="63">
         <v>29.393750000000001</v>
       </c>
-      <c r="I67" s="61">
+      <c r="I67" s="63">
         <v>39.799999999999997</v>
       </c>
-      <c r="J67" s="62">
+      <c r="J67" s="64">
         <v>37.784210526315803</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A68" s="47" t="s">
+      <c r="A68" s="57" t="s">
         <v>32</v>
       </c>
-      <c r="B68" s="37" t="s">
+      <c r="B68" s="54" t="s">
         <v>132</v>
       </c>
-      <c r="C68" s="49">
+      <c r="C68" s="62">
         <v>0.53241666666666998</v>
       </c>
-      <c r="D68" s="49">
+      <c r="D68" s="63">
         <v>0.879</v>
       </c>
-      <c r="E68" s="50">
+      <c r="E68" s="63">
         <v>0.56028571428570995</v>
       </c>
-      <c r="F68" s="51">
+      <c r="F68" s="62">
         <v>46.214285714285701</v>
       </c>
-      <c r="G68" s="51">
+      <c r="G68" s="63">
         <v>62.4</v>
       </c>
-      <c r="H68" s="51">
+      <c r="H68" s="63">
         <v>30.995238095238101</v>
       </c>
-      <c r="I68" s="51">
+      <c r="I68" s="63">
         <v>45.645454545454598</v>
       </c>
-      <c r="J68" s="52">
+      <c r="J68" s="64">
         <v>41.060869565217402</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A69" s="47" t="s">
+      <c r="A69" s="57" t="s">
         <v>32</v>
       </c>
-      <c r="B69" s="37" t="s">
+      <c r="B69" s="54" t="s">
         <v>133</v>
       </c>
-      <c r="C69" s="49">
+      <c r="C69" s="62">
         <v>0.49614285714285999</v>
       </c>
-      <c r="D69" s="49">
+      <c r="D69" s="63">
         <v>0.91828571428571004</v>
       </c>
-      <c r="E69" s="50">
+      <c r="E69" s="63">
         <v>0.52528571428571003</v>
       </c>
-      <c r="F69" s="51">
+      <c r="F69" s="62">
         <v>38.071428571428598</v>
       </c>
-      <c r="G69" s="51">
+      <c r="G69" s="63">
         <v>54.1</v>
       </c>
-      <c r="H69" s="51">
+      <c r="H69" s="63">
         <v>30.8857142857143</v>
       </c>
-      <c r="I69" s="51">
+      <c r="I69" s="63">
         <v>39.9428571428571</v>
       </c>
-      <c r="J69" s="52">
+      <c r="J69" s="64">
         <v>22.714285714285701</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A70" s="47" t="s">
+      <c r="A70" s="57" t="s">
         <v>32</v>
       </c>
-      <c r="B70" s="37" t="s">
+      <c r="B70" s="54" t="s">
         <v>134</v>
       </c>
-      <c r="C70" s="49">
+      <c r="C70" s="62">
         <v>0.53545454545454996</v>
       </c>
-      <c r="D70" s="49">
+      <c r="D70" s="63">
         <v>0.8891</v>
       </c>
-      <c r="E70" s="50">
+      <c r="E70" s="63">
         <v>0.55189999999999995</v>
       </c>
-      <c r="F70" s="51">
+      <c r="F70" s="62">
         <v>41.75</v>
       </c>
-      <c r="G70" s="51">
+      <c r="G70" s="63">
         <v>47.963636363636397</v>
       </c>
-      <c r="H70" s="51">
+      <c r="H70" s="63">
         <v>26.82</v>
       </c>
-      <c r="I70" s="51">
+      <c r="I70" s="63">
         <v>54.766666666666701</v>
       </c>
-      <c r="J70" s="52">
+      <c r="J70" s="64">
         <v>31.211111111111101</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A71" s="47" t="s">
+      <c r="A71" s="57" t="s">
         <v>32</v>
       </c>
-      <c r="B71" s="37" t="s">
+      <c r="B71" s="54" t="s">
         <v>135</v>
       </c>
-      <c r="C71" s="49">
+      <c r="C71" s="62">
         <v>0.50913333333333</v>
       </c>
-      <c r="D71" s="49">
+      <c r="D71" s="63">
         <v>0.88733333333332998</v>
       </c>
-      <c r="E71" s="50">
+      <c r="E71" s="63">
         <v>0.59119999999999995</v>
       </c>
-      <c r="F71" s="51">
+      <c r="F71" s="62">
         <v>40.2615384615385</v>
       </c>
-      <c r="G71" s="51">
+      <c r="G71" s="63">
         <v>47.946666666666701</v>
       </c>
-      <c r="H71" s="51">
+      <c r="H71" s="63">
         <v>32.071428571428598</v>
       </c>
-      <c r="I71" s="51">
+      <c r="I71" s="63">
         <v>37.630769230769197</v>
       </c>
-      <c r="J71" s="52">
+      <c r="J71" s="64">
         <v>34.2153846153846</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A72" s="47" t="s">
+      <c r="A72" s="57" t="s">
         <v>32</v>
       </c>
-      <c r="B72" s="37" t="s">
+      <c r="B72" s="54" t="s">
         <v>136</v>
       </c>
-      <c r="C72" s="49">
+      <c r="C72" s="62">
         <v>0.5</v>
       </c>
-      <c r="D72" s="49">
+      <c r="D72" s="63">
         <v>0.90039999999999998</v>
       </c>
-      <c r="E72" s="50">
+      <c r="E72" s="63">
         <v>0.53920000000000001</v>
       </c>
-      <c r="F72" s="51">
+      <c r="F72" s="62">
         <v>41.516666666666701</v>
       </c>
-      <c r="G72" s="51">
+      <c r="G72" s="63">
         <v>60.414285714285697</v>
       </c>
-      <c r="H72" s="51">
+      <c r="H72" s="63">
         <v>33.266666666666701</v>
       </c>
-      <c r="I72" s="51">
+      <c r="I72" s="63">
         <v>45.585714285714303</v>
       </c>
-      <c r="J72" s="52">
+      <c r="J72" s="64">
         <v>26.228571428571399</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A73" s="47" t="s">
+      <c r="A73" s="57" t="s">
         <v>32</v>
       </c>
-      <c r="B73" s="37" t="s">
+      <c r="B73" s="54" t="s">
         <v>137</v>
       </c>
-      <c r="C73" s="49">
+      <c r="C73" s="62">
         <v>0.59424999999999994</v>
       </c>
-      <c r="D73" s="49">
+      <c r="D73" s="63">
         <v>0.95113333333333006</v>
       </c>
-      <c r="E73" s="50">
+      <c r="E73" s="63">
         <v>0.51278571428570996</v>
       </c>
-      <c r="F73" s="51">
+      <c r="F73" s="62">
         <v>34.584615384615397</v>
       </c>
-      <c r="G73" s="51">
+      <c r="G73" s="63">
         <v>42.881250000000001</v>
       </c>
-      <c r="H73" s="51">
+      <c r="H73" s="63">
         <v>28.8857142857143</v>
       </c>
-      <c r="I73" s="51">
+      <c r="I73" s="63">
         <v>31.457142857142902</v>
       </c>
-      <c r="J73" s="52">
+      <c r="J73" s="64">
         <v>30.286666666666701</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A74" s="47" t="s">
+      <c r="A74" s="57" t="s">
         <v>32</v>
       </c>
-      <c r="B74" s="37" t="s">
+      <c r="B74" s="54" t="s">
         <v>138</v>
       </c>
-      <c r="C74" s="49">
+      <c r="C74" s="62">
         <v>0.68659999999999999</v>
       </c>
-      <c r="D74" s="49">
+      <c r="D74" s="63">
         <v>0.90739999999999998</v>
       </c>
-      <c r="E74" s="50">
+      <c r="E74" s="63">
         <v>0.4148</v>
       </c>
-      <c r="F74" s="51">
+      <c r="F74" s="62">
         <v>55.233333333333299</v>
       </c>
-      <c r="G74" s="51">
+      <c r="G74" s="63">
         <v>82.76</v>
       </c>
-      <c r="H74" s="51">
+      <c r="H74" s="63">
         <v>23.966666666666701</v>
       </c>
-      <c r="I74" s="51">
+      <c r="I74" s="63">
         <v>53.375</v>
       </c>
-      <c r="J74" s="52">
+      <c r="J74" s="64">
         <v>55.84</v>
       </c>
     </row>
     <row r="75" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="47" t="s">
+      <c r="A75" s="57" t="s">
         <v>32</v>
       </c>
-      <c r="B75" s="53" t="s">
+      <c r="B75" s="54" t="s">
         <v>139</v>
       </c>
-      <c r="C75" s="54">
+      <c r="C75" s="55">
         <v>0.55900000000000005</v>
       </c>
-      <c r="D75" s="54">
+      <c r="D75" s="56">
         <v>0.91600000000000004</v>
       </c>
-      <c r="E75" s="55">
+      <c r="E75" s="67">
         <v>0.50880000000000003</v>
       </c>
-      <c r="F75" s="56">
+      <c r="F75" s="55">
         <v>24.4</v>
       </c>
       <c r="G75" s="56">
         <v>19.940000000000001</v>
       </c>
-      <c r="H75" s="56">
+      <c r="H75" s="67">
         <v>18.899999999999999</v>
       </c>
       <c r="I75" s="56">
         <v>37.4</v>
       </c>
-      <c r="J75" s="57">
+      <c r="J75" s="68">
         <v>14.4</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A76" s="47" t="s">
+      <c r="A76" s="57" t="s">
         <v>32</v>
       </c>
-      <c r="B76" s="58" t="s">
+      <c r="B76" s="69" t="s">
         <v>140</v>
       </c>
-      <c r="C76" s="59">
+      <c r="C76" s="70">
         <v>0.72629999999999995</v>
       </c>
-      <c r="D76" s="59">
+      <c r="D76" s="71">
         <v>0.97219999999999995</v>
       </c>
-      <c r="E76" s="60">
+      <c r="E76" s="63">
         <v>0.34560000000000002</v>
       </c>
-      <c r="F76" s="61">
+      <c r="F76" s="70">
         <v>37.7222222222222</v>
       </c>
-      <c r="G76" s="61">
+      <c r="G76" s="71">
         <v>47.18</v>
       </c>
-      <c r="H76" s="61">
+      <c r="H76" s="63">
         <v>36.955555555555598</v>
       </c>
-      <c r="I76" s="61">
+      <c r="I76" s="71">
         <v>33.377777777777801</v>
       </c>
-      <c r="J76" s="62">
+      <c r="J76" s="64">
         <v>36.411111111111097</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A77" s="47" t="s">
+      <c r="A77" s="57" t="s">
         <v>32</v>
       </c>
-      <c r="B77" s="37" t="s">
+      <c r="B77" s="54" t="s">
         <v>141</v>
       </c>
-      <c r="C77" s="49">
+      <c r="C77" s="62">
         <v>0.75483333333333003</v>
       </c>
-      <c r="D77" s="49">
+      <c r="D77" s="63">
         <v>0.98416666666666996</v>
       </c>
-      <c r="E77" s="50">
+      <c r="E77" s="63">
         <v>0.37508333333332999</v>
       </c>
-      <c r="F77" s="51">
+      <c r="F77" s="62">
         <v>21.41</v>
       </c>
-      <c r="G77" s="51">
+      <c r="G77" s="63">
         <v>22.766666666666701</v>
       </c>
-      <c r="H77" s="51">
+      <c r="H77" s="63">
         <v>25.5416666666667</v>
       </c>
-      <c r="I77" s="51">
+      <c r="I77" s="63">
         <v>24.25</v>
       </c>
-      <c r="J77" s="52">
+      <c r="J77" s="64">
         <v>16.116666666666699</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A78" s="47" t="s">
+      <c r="A78" s="57" t="s">
         <v>32</v>
       </c>
-      <c r="B78" s="37" t="s">
+      <c r="B78" s="54" t="s">
         <v>142</v>
       </c>
-      <c r="C78" s="49">
+      <c r="C78" s="62">
         <v>0.89611111111110997</v>
       </c>
-      <c r="D78" s="49">
+      <c r="D78" s="63">
         <v>0.99051851851852002</v>
       </c>
-      <c r="E78" s="50">
+      <c r="E78" s="63">
         <v>0.1</v>
       </c>
-      <c r="F78" s="51">
+      <c r="F78" s="62">
         <v>14.596</v>
       </c>
-      <c r="G78" s="51">
+      <c r="G78" s="63">
         <v>12.9444444444444</v>
       </c>
-      <c r="H78" s="51">
+      <c r="H78" s="63">
         <v>19.271999999999998</v>
       </c>
-      <c r="I78" s="51">
+      <c r="I78" s="63">
         <v>7.75555555555556</v>
       </c>
-      <c r="J78" s="52">
+      <c r="J78" s="64">
         <v>18.281481481481499</v>
       </c>
     </row>
     <row r="79" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="47" t="s">
+      <c r="A79" s="57" t="s">
         <v>32</v>
       </c>
-      <c r="B79" s="53" t="s">
+      <c r="B79" s="65" t="s">
         <v>143</v>
       </c>
-      <c r="C79" s="54">
+      <c r="C79" s="66">
         <v>0.90115789473684005</v>
       </c>
-      <c r="D79" s="54">
+      <c r="D79" s="67">
         <v>0.98505263157894996</v>
       </c>
-      <c r="E79" s="55">
+      <c r="E79" s="67">
         <v>0.10763157894736999</v>
       </c>
-      <c r="F79" s="56">
+      <c r="F79" s="66">
         <v>16.466666666666701</v>
       </c>
-      <c r="G79" s="56">
+      <c r="G79" s="67">
         <v>13.634210526315799</v>
       </c>
-      <c r="H79" s="56">
+      <c r="H79" s="67">
         <v>18.961111111111101</v>
       </c>
-      <c r="I79" s="56">
+      <c r="I79" s="67">
         <v>13.2947368421053</v>
       </c>
-      <c r="J79" s="57">
+      <c r="J79" s="68">
         <v>18.436842105263199</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A80" s="47" t="s">
+      <c r="A80" s="57" t="s">
         <v>32</v>
       </c>
-      <c r="B80" s="58" t="s">
+      <c r="B80" s="54" t="s">
         <v>144</v>
       </c>
-      <c r="C80" s="59">
+      <c r="C80" s="62">
         <v>0.59189999999999998</v>
       </c>
-      <c r="D80" s="59">
+      <c r="D80" s="63">
         <v>0.89822222222222003</v>
       </c>
-      <c r="E80" s="60">
+      <c r="E80" s="63">
         <v>0.51333333333332998</v>
       </c>
-      <c r="F80" s="61">
+      <c r="F80" s="62">
         <v>42.24</v>
       </c>
-      <c r="G80" s="61">
+      <c r="G80" s="63">
         <v>54.4</v>
       </c>
-      <c r="H80" s="61">
+      <c r="H80" s="63">
         <v>29.285714285714299</v>
       </c>
-      <c r="I80" s="61">
+      <c r="I80" s="63">
         <v>54.985714285714302</v>
       </c>
-      <c r="J80" s="62">
+      <c r="J80" s="64">
         <v>38.287500000000001</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A81" s="47" t="s">
+      <c r="A81" s="57" t="s">
         <v>32</v>
       </c>
-      <c r="B81" s="37" t="s">
+      <c r="B81" s="54" t="s">
         <v>145</v>
       </c>
-      <c r="C81" s="49">
+      <c r="C81" s="62">
         <v>0.75600000000000001</v>
       </c>
-      <c r="D81" s="49">
+      <c r="D81" s="63">
         <v>0.93654545454545002</v>
       </c>
-      <c r="E81" s="50">
+      <c r="E81" s="63">
         <v>0.34095454545455001</v>
       </c>
-      <c r="F81" s="51">
+      <c r="F81" s="62">
         <v>37.659999999999997</v>
       </c>
-      <c r="G81" s="51">
+      <c r="G81" s="63">
         <v>56.8</v>
       </c>
-      <c r="H81" s="51">
+      <c r="H81" s="63">
         <v>36.992857142857098</v>
       </c>
-      <c r="I81" s="51">
+      <c r="I81" s="63">
         <v>32.282352941176498</v>
       </c>
-      <c r="J81" s="52">
+      <c r="J81" s="64">
         <v>39.340000000000003</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A82" s="47" t="s">
+      <c r="A82" s="57" t="s">
         <v>32</v>
       </c>
-      <c r="B82" s="37" t="s">
+      <c r="B82" s="54" t="s">
         <v>146</v>
       </c>
-      <c r="C82" s="49">
+      <c r="C82" s="62">
         <v>0.55132558139535004</v>
       </c>
-      <c r="D82" s="49">
+      <c r="D82" s="63">
         <v>0.91292499999999999</v>
       </c>
-      <c r="E82" s="50">
+      <c r="E82" s="63">
         <v>0.53900000000000003</v>
       </c>
-      <c r="F82" s="51">
+      <c r="F82" s="62">
         <v>40.389189189189203</v>
       </c>
-      <c r="G82" s="51">
+      <c r="G82" s="63">
         <v>51.986363636363699</v>
       </c>
-      <c r="H82" s="51">
+      <c r="H82" s="63">
         <v>29.6794871794872</v>
       </c>
-      <c r="I82" s="51">
+      <c r="I82" s="63">
         <v>38.7358974358974</v>
       </c>
-      <c r="J82" s="52">
+      <c r="J82" s="64">
         <v>33.857500000000002</v>
       </c>
     </row>
     <row r="83" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="47" t="s">
+      <c r="A83" s="57" t="s">
         <v>32</v>
       </c>
-      <c r="B83" s="53" t="s">
+      <c r="B83" s="54" t="s">
         <v>147</v>
       </c>
-      <c r="C83" s="54">
+      <c r="C83" s="55">
         <v>0.78688596491228002</v>
       </c>
-      <c r="D83" s="54">
+      <c r="D83" s="56">
         <v>0.96829292929292998</v>
       </c>
-      <c r="E83" s="55">
+      <c r="E83" s="67">
         <v>0.25402000000000002</v>
       </c>
-      <c r="F83" s="56">
+      <c r="F83" s="55">
         <v>23.845238095238098</v>
       </c>
       <c r="G83" s="56">
         <v>25.755555555555599</v>
       </c>
-      <c r="H83" s="56">
+      <c r="H83" s="67">
         <v>25.238888888888901</v>
       </c>
       <c r="I83" s="56">
         <v>20.869662921348301</v>
       </c>
-      <c r="J83" s="57">
+      <c r="J83" s="68">
         <v>23.8122222222222</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A84" s="47" t="s">
+      <c r="A84" s="57" t="s">
         <v>32</v>
       </c>
-      <c r="B84" s="58" t="s">
+      <c r="B84" s="69" t="s">
         <v>148</v>
       </c>
-      <c r="C84" s="59">
+      <c r="C84" s="70">
         <v>0.46957142857143003</v>
       </c>
-      <c r="D84" s="59">
+      <c r="D84" s="71">
         <v>0.88949999999999996</v>
       </c>
-      <c r="E84" s="60">
+      <c r="E84" s="63">
         <v>0.57994999999999997</v>
       </c>
-      <c r="F84" s="61">
+      <c r="F84" s="70">
         <v>41.59</v>
       </c>
-      <c r="G84" s="61">
+      <c r="G84" s="71">
         <v>51.863636363636402</v>
       </c>
-      <c r="H84" s="61">
+      <c r="H84" s="63">
         <v>32.575000000000003</v>
       </c>
-      <c r="I84" s="61">
+      <c r="I84" s="71">
         <v>44.914999999999999</v>
       </c>
-      <c r="J84" s="62">
+      <c r="J84" s="64">
         <v>31.95</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A85" s="47" t="s">
+      <c r="A85" s="57" t="s">
         <v>32</v>
       </c>
-      <c r="B85" s="37" t="s">
+      <c r="B85" s="72" t="s">
         <v>149</v>
       </c>
-      <c r="C85" s="49">
+      <c r="C85" s="62">
         <v>0.50333333333332997</v>
       </c>
-      <c r="D85" s="49">
+      <c r="D85" s="63">
         <v>0.66733333333333</v>
       </c>
-      <c r="E85" s="50">
+      <c r="E85" s="63">
         <v>0.65833333333333</v>
       </c>
-      <c r="F85" s="51" t="s">
+      <c r="F85" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="G85" s="51">
+      <c r="G85" s="63">
         <v>86.3</v>
       </c>
-      <c r="H85" s="51" t="s">
+      <c r="H85" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="I85" s="51">
+      <c r="I85" s="63">
         <v>51.55</v>
       </c>
-      <c r="J85" s="52">
+      <c r="J85" s="64">
         <v>70.25</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A86" s="47" t="s">
+      <c r="A86" s="57" t="s">
         <v>32</v>
       </c>
-      <c r="B86" s="37" t="s">
+      <c r="B86" s="54" t="s">
         <v>150</v>
       </c>
-      <c r="C86" s="49">
+      <c r="C86" s="62">
         <v>0.58904166666667002</v>
       </c>
-      <c r="D86" s="49">
+      <c r="D86" s="63">
         <v>0.91417391304347995</v>
       </c>
-      <c r="E86" s="50">
+      <c r="E86" s="63">
         <v>0.52622727272726999</v>
       </c>
-      <c r="F86" s="51">
+      <c r="F86" s="62">
         <v>41.877777777777801</v>
       </c>
-      <c r="G86" s="51">
+      <c r="G86" s="63">
         <v>54.654166666666697</v>
       </c>
-      <c r="H86" s="51">
+      <c r="H86" s="63">
         <v>27.157142857142901</v>
       </c>
-      <c r="I86" s="51">
+      <c r="I86" s="63">
         <v>42.495238095238101</v>
       </c>
-      <c r="J86" s="52">
+      <c r="J86" s="64">
         <v>37.877272727272697</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A87" s="47" t="s">
+      <c r="A87" s="57" t="s">
         <v>32</v>
       </c>
-      <c r="B87" s="37" t="s">
+      <c r="B87" s="54" t="s">
         <v>151</v>
       </c>
-      <c r="C87" s="49">
+      <c r="C87" s="62">
         <v>0.65669999999999995</v>
       </c>
-      <c r="D87" s="49">
+      <c r="D87" s="63">
         <v>0.93423076923076998</v>
       </c>
-      <c r="E87" s="50">
+      <c r="E87" s="63">
         <v>0.42853846153845998</v>
       </c>
-      <c r="F87" s="51">
+      <c r="F87" s="62">
         <v>37.895454545454598</v>
       </c>
-      <c r="G87" s="51">
+      <c r="G87" s="63">
         <v>45.2740740740741</v>
       </c>
-      <c r="H87" s="51">
+      <c r="H87" s="63">
         <v>34.5</v>
       </c>
-      <c r="I87" s="51">
+      <c r="I87" s="63">
         <v>33.533333333333303</v>
       </c>
-      <c r="J87" s="52">
+      <c r="J87" s="64">
         <v>33.326086956521699</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A88" s="47" t="s">
+      <c r="A88" s="57" t="s">
         <v>32</v>
       </c>
-      <c r="B88" s="37" t="s">
+      <c r="B88" s="54" t="s">
         <v>152</v>
       </c>
-      <c r="C88" s="49">
+      <c r="C88" s="62">
         <v>0.69185714285713995</v>
       </c>
-      <c r="D88" s="49">
+      <c r="D88" s="63">
         <v>0.96416666666666995</v>
       </c>
-      <c r="E88" s="50">
+      <c r="E88" s="63">
         <v>0.41083333333333</v>
       </c>
-      <c r="F88" s="51">
+      <c r="F88" s="62">
         <v>30</v>
       </c>
-      <c r="G88" s="51">
+      <c r="G88" s="63">
         <v>52.871428571428602</v>
       </c>
-      <c r="H88" s="51">
+      <c r="H88" s="63">
         <v>28.14</v>
       </c>
-      <c r="I88" s="51">
+      <c r="I88" s="63">
         <v>20.98</v>
       </c>
-      <c r="J88" s="52">
+      <c r="J88" s="64">
         <v>31.383333333333301</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A89" s="47" t="s">
+      <c r="A89" s="57" t="s">
         <v>32</v>
       </c>
-      <c r="B89" s="37" t="s">
+      <c r="B89" s="54" t="s">
         <v>153</v>
       </c>
-      <c r="C89" s="49">
+      <c r="C89" s="62">
         <v>0.75495555555556004</v>
       </c>
-      <c r="D89" s="49">
+      <c r="D89" s="63">
         <v>0.97465000000000002</v>
       </c>
-      <c r="E89" s="50">
+      <c r="E89" s="63">
         <v>0.304425</v>
       </c>
-      <c r="F89" s="51">
+      <c r="F89" s="62">
         <v>24.3533333333333</v>
       </c>
-      <c r="G89" s="51">
+      <c r="G89" s="63">
         <v>25.789189189189202</v>
       </c>
-      <c r="H89" s="51">
+      <c r="H89" s="63">
         <v>27.908571428571399</v>
       </c>
-      <c r="I89" s="51">
+      <c r="I89" s="63">
         <v>22.9709677419355</v>
       </c>
-      <c r="J89" s="52">
+      <c r="J89" s="64">
         <v>21.146875000000001</v>
       </c>
     </row>
     <row r="90" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="47" t="s">
+      <c r="A90" s="57" t="s">
         <v>32</v>
       </c>
-      <c r="B90" s="53" t="s">
+      <c r="B90" s="65" t="s">
         <v>154</v>
       </c>
-      <c r="C90" s="54">
+      <c r="C90" s="66">
         <v>0.88356896551723996</v>
       </c>
-      <c r="D90" s="54">
+      <c r="D90" s="67">
         <v>0.98439215686274995</v>
       </c>
-      <c r="E90" s="55">
+      <c r="E90" s="67">
         <v>0.13686538461538</v>
       </c>
-      <c r="F90" s="56">
+      <c r="F90" s="66">
         <v>19.480487804878099</v>
       </c>
-      <c r="G90" s="56">
+      <c r="G90" s="67">
         <v>25.783333333333299</v>
       </c>
-      <c r="H90" s="56">
+      <c r="H90" s="67">
         <v>21.178571428571399</v>
       </c>
-      <c r="I90" s="56">
+      <c r="I90" s="67">
         <v>15.875</v>
       </c>
-      <c r="J90" s="57">
+      <c r="J90" s="68">
         <v>24.3595744680851</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A91" s="47" t="s">
+      <c r="A91" s="57" t="s">
         <v>32</v>
       </c>
-      <c r="B91" s="58" t="s">
+      <c r="B91" s="54" t="s">
         <v>155</v>
       </c>
-      <c r="C91" s="59">
+      <c r="C91" s="62">
         <v>0.49428125000000001</v>
       </c>
-      <c r="D91" s="59">
+      <c r="D91" s="63">
         <v>0.89593333333333003</v>
       </c>
-      <c r="E91" s="60">
+      <c r="E91" s="63">
         <v>0.57489655172414</v>
       </c>
-      <c r="F91" s="61">
+      <c r="F91" s="62">
         <v>41.7206896551724</v>
       </c>
-      <c r="G91" s="61">
+      <c r="G91" s="63">
         <v>53.372727272727303</v>
       </c>
-      <c r="H91" s="61">
+      <c r="H91" s="63">
         <v>30.746666666666702</v>
       </c>
-      <c r="I91" s="61">
+      <c r="I91" s="63">
         <v>44.023333333333298</v>
       </c>
-      <c r="J91" s="62">
+      <c r="J91" s="64">
         <v>31.706666666666699</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A92" s="47" t="s">
+      <c r="A92" s="57" t="s">
         <v>32</v>
       </c>
-      <c r="B92" s="37" t="s">
+      <c r="B92" s="54" t="s">
         <v>156</v>
       </c>
-      <c r="C92" s="49">
+      <c r="C92" s="62">
         <v>0.57933333333333004</v>
       </c>
-      <c r="D92" s="49">
+      <c r="D92" s="63">
         <v>0.85011111111111004</v>
       </c>
-      <c r="E92" s="50">
+      <c r="E92" s="63">
         <v>0.54777777777778003</v>
       </c>
-      <c r="F92" s="51">
+      <c r="F92" s="62">
         <v>36.3333333333333</v>
       </c>
-      <c r="G92" s="51">
+      <c r="G92" s="63">
         <v>47.644444444444503</v>
       </c>
-      <c r="H92" s="51">
+      <c r="H92" s="63">
         <v>32.3125</v>
       </c>
-      <c r="I92" s="51">
+      <c r="I92" s="63">
         <v>34.325000000000003</v>
       </c>
-      <c r="J92" s="52">
+      <c r="J92" s="64">
         <v>41.8</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A93" s="47" t="s">
+      <c r="A93" s="57" t="s">
         <v>32</v>
       </c>
-      <c r="B93" s="37" t="s">
+      <c r="B93" s="54" t="s">
         <v>157</v>
       </c>
-      <c r="C93" s="49">
+      <c r="C93" s="62">
         <v>0.65133333333332999</v>
       </c>
-      <c r="D93" s="49">
+      <c r="D93" s="63">
         <v>0.92379999999999995</v>
       </c>
-      <c r="E93" s="50">
+      <c r="E93" s="63">
         <v>0.45424999999999999</v>
       </c>
-      <c r="F93" s="51">
+      <c r="F93" s="62">
         <v>55</v>
       </c>
-      <c r="G93" s="51">
+      <c r="G93" s="63">
         <v>33.133333333333297</v>
       </c>
-      <c r="H93" s="51">
+      <c r="H93" s="63">
         <v>20.6</v>
       </c>
-      <c r="I93" s="51">
+      <c r="I93" s="63">
         <v>18.399999999999999</v>
       </c>
-      <c r="J93" s="52">
+      <c r="J93" s="64">
         <v>48.7</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A94" s="47" t="s">
+      <c r="A94" s="57" t="s">
         <v>32</v>
       </c>
-      <c r="B94" s="37" t="s">
+      <c r="B94" s="54" t="s">
         <v>158</v>
       </c>
-      <c r="C94" s="49">
+      <c r="C94" s="62">
         <v>0.71209999999999996</v>
       </c>
-      <c r="D94" s="49">
+      <c r="D94" s="63">
         <v>0.96861111111110998</v>
       </c>
-      <c r="E94" s="50">
+      <c r="E94" s="63">
         <v>0.39563157894737</v>
       </c>
-      <c r="F94" s="51">
+      <c r="F94" s="62">
         <v>28.466666666666701</v>
       </c>
-      <c r="G94" s="51">
+      <c r="G94" s="63">
         <v>32.005000000000003</v>
       </c>
-      <c r="H94" s="51">
+      <c r="H94" s="63">
         <v>33.746666666666698</v>
       </c>
-      <c r="I94" s="51">
+      <c r="I94" s="63">
         <v>24.887499999999999</v>
       </c>
-      <c r="J94" s="52">
+      <c r="J94" s="64">
         <v>26.422222222222199</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A95" s="47" t="s">
+      <c r="A95" s="57" t="s">
         <v>32</v>
       </c>
-      <c r="B95" s="37" t="s">
+      <c r="B95" s="54" t="s">
         <v>159</v>
       </c>
-      <c r="C95" s="49">
+      <c r="C95" s="62">
         <v>0.49481249999999999</v>
       </c>
-      <c r="D95" s="49">
+      <c r="D95" s="63">
         <v>0.91443750000000001</v>
       </c>
-      <c r="E95" s="50">
+      <c r="E95" s="63">
         <v>0.55562500000000004</v>
       </c>
-      <c r="F95" s="51">
+      <c r="F95" s="62">
         <v>36.766666666666701</v>
       </c>
-      <c r="G95" s="51">
+      <c r="G95" s="63">
         <v>47.75</v>
       </c>
-      <c r="H95" s="51">
+      <c r="H95" s="63">
         <v>30.018750000000001</v>
       </c>
-      <c r="I95" s="51">
+      <c r="I95" s="63">
         <v>41.0133333333333</v>
       </c>
-      <c r="J95" s="52">
+      <c r="J95" s="64">
         <v>26.756250000000001</v>
       </c>
     </row>
     <row r="96" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="47" t="s">
+      <c r="A96" s="57" t="s">
         <v>32</v>
       </c>
-      <c r="B96" s="53" t="s">
+      <c r="B96" s="54" t="s">
         <v>160</v>
       </c>
-      <c r="C96" s="54">
+      <c r="C96" s="55">
         <v>0.700125</v>
       </c>
-      <c r="D96" s="54">
+      <c r="D96" s="56">
         <v>0.94981249999999995</v>
       </c>
-      <c r="E96" s="55">
+      <c r="E96" s="67">
         <v>0.32924999999999999</v>
       </c>
-      <c r="F96" s="56">
+      <c r="F96" s="55">
         <v>25.2846153846154</v>
       </c>
       <c r="G96" s="56">
         <v>26.233333333333299</v>
       </c>
-      <c r="H96" s="56">
+      <c r="H96" s="67">
         <v>27.957142857142902</v>
       </c>
       <c r="I96" s="56">
         <v>23.1428571428571</v>
       </c>
-      <c r="J96" s="57">
+      <c r="J96" s="68">
         <v>24.3071428571429</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A97" s="47" t="s">
+      <c r="A97" s="57" t="s">
         <v>32</v>
       </c>
-      <c r="B97" s="58" t="s">
+      <c r="B97" s="69" t="s">
         <v>161</v>
       </c>
-      <c r="C97" s="59">
+      <c r="C97" s="70">
         <v>0.52492857142856997</v>
       </c>
-      <c r="D97" s="59">
+      <c r="D97" s="71">
         <v>0.90962962962963001</v>
       </c>
-      <c r="E97" s="60">
+      <c r="E97" s="63">
         <v>0.57042307692308003</v>
       </c>
-      <c r="F97" s="61">
+      <c r="F97" s="70">
         <v>39.829166666666701</v>
       </c>
-      <c r="G97" s="61">
+      <c r="G97" s="71">
         <v>52.839285714285701</v>
       </c>
-      <c r="H97" s="61">
+      <c r="H97" s="63">
         <v>31.02</v>
       </c>
-      <c r="I97" s="61">
+      <c r="I97" s="71">
         <v>41.588000000000001</v>
       </c>
-      <c r="J97" s="62">
+      <c r="J97" s="64">
         <v>34.570370370370398</v>
       </c>
     </row>
     <row r="98" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="47" t="s">
+      <c r="A98" s="57" t="s">
         <v>32</v>
       </c>
-      <c r="B98" s="53" t="s">
+      <c r="B98" s="65" t="s">
         <v>162</v>
       </c>
-      <c r="C98" s="54">
+      <c r="C98" s="66">
         <v>0.63526666666666998</v>
       </c>
-      <c r="D98" s="54">
+      <c r="D98" s="67">
         <v>0.92400000000000004</v>
       </c>
-      <c r="E98" s="55">
+      <c r="E98" s="67">
         <v>0.45378571428571002</v>
       </c>
-      <c r="F98" s="56">
+      <c r="F98" s="66">
         <v>36.036363636363603</v>
       </c>
-      <c r="G98" s="56">
+      <c r="G98" s="67">
         <v>41.4</v>
       </c>
-      <c r="H98" s="56">
+      <c r="H98" s="67">
         <v>34.613333333333301</v>
       </c>
-      <c r="I98" s="56">
+      <c r="I98" s="67">
         <v>35.200000000000003</v>
       </c>
-      <c r="J98" s="57">
+      <c r="J98" s="68">
         <v>29.072727272727299</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A99" s="63"/>
-      <c r="B99" s="64"/>
-      <c r="C99" s="65"/>
-      <c r="D99" s="65"/>
-      <c r="E99" s="65"/>
-      <c r="F99" s="65"/>
-      <c r="G99" s="65"/>
-      <c r="H99" s="65"/>
-      <c r="I99" s="65"/>
-      <c r="J99" s="65"/>
+      <c r="A99" s="73"/>
+      <c r="B99" s="74"/>
+      <c r="C99" s="75"/>
+      <c r="D99" s="75"/>
+      <c r="E99" s="75"/>
+      <c r="F99" s="75"/>
+      <c r="G99" s="75"/>
+      <c r="H99" s="75"/>
+      <c r="I99" s="75"/>
+      <c r="J99" s="75"/>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="C100" s="66"/>
-      <c r="D100" s="66"/>
-      <c r="E100" s="66"/>
-      <c r="F100" s="66"/>
-      <c r="G100" s="66"/>
-      <c r="H100" s="66"/>
-      <c r="I100" s="66"/>
-      <c r="J100" s="66"/>
+      <c r="C100" s="76"/>
+      <c r="D100" s="76"/>
+      <c r="E100" s="76"/>
+      <c r="F100" s="76"/>
+      <c r="G100" s="76"/>
+      <c r="H100" s="76"/>
+      <c r="I100" s="76"/>
+      <c r="J100" s="76"/>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="C101" s="66"/>
-      <c r="D101" s="66"/>
-      <c r="E101" s="66"/>
-      <c r="F101" s="66"/>
-      <c r="G101" s="66"/>
-      <c r="H101" s="66"/>
-      <c r="I101" s="66"/>
-      <c r="J101" s="66"/>
+      <c r="C101" s="76"/>
+      <c r="D101" s="76"/>
+      <c r="E101" s="76"/>
+      <c r="F101" s="76"/>
+      <c r="G101" s="76"/>
+      <c r="H101" s="76"/>
+      <c r="I101" s="76"/>
+      <c r="J101" s="76"/>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="C102" s="66"/>
-      <c r="D102" s="66"/>
-      <c r="E102" s="66"/>
-      <c r="F102" s="66"/>
-      <c r="G102" s="66"/>
-      <c r="H102" s="66"/>
-      <c r="I102" s="66"/>
-      <c r="J102" s="66"/>
+      <c r="C102" s="76"/>
+      <c r="D102" s="76"/>
+      <c r="E102" s="76"/>
+      <c r="F102" s="76"/>
+      <c r="G102" s="76"/>
+      <c r="H102" s="76"/>
+      <c r="I102" s="76"/>
+      <c r="J102" s="76"/>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="C103" s="66"/>
-      <c r="D103" s="66"/>
-      <c r="E103" s="66"/>
-      <c r="F103" s="66"/>
-      <c r="G103" s="66"/>
-      <c r="H103" s="66"/>
-      <c r="I103" s="66"/>
-      <c r="J103" s="66"/>
+      <c r="C103" s="76"/>
+      <c r="D103" s="76"/>
+      <c r="E103" s="76"/>
+      <c r="F103" s="76"/>
+      <c r="G103" s="76"/>
+      <c r="H103" s="76"/>
+      <c r="I103" s="76"/>
+      <c r="J103" s="76"/>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="C104" s="66"/>
-      <c r="D104" s="66"/>
-      <c r="E104" s="66"/>
-      <c r="F104" s="66"/>
-      <c r="G104" s="66"/>
-      <c r="H104" s="66"/>
-      <c r="I104" s="66"/>
-      <c r="J104" s="66"/>
+      <c r="C104" s="76"/>
+      <c r="D104" s="76"/>
+      <c r="E104" s="76"/>
+      <c r="F104" s="76"/>
+      <c r="G104" s="76"/>
+      <c r="H104" s="76"/>
+      <c r="I104" s="76"/>
+      <c r="J104" s="76"/>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C105" s="66"/>
-      <c r="D105" s="66"/>
-      <c r="E105" s="66"/>
-      <c r="F105" s="66"/>
-      <c r="G105" s="66"/>
-      <c r="H105" s="66"/>
-      <c r="I105" s="66"/>
-      <c r="J105" s="66"/>
+      <c r="C105" s="76"/>
+      <c r="D105" s="76"/>
+      <c r="E105" s="76"/>
+      <c r="F105" s="76"/>
+      <c r="G105" s="76"/>
+      <c r="H105" s="76"/>
+      <c r="I105" s="76"/>
+      <c r="J105" s="76"/>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C106" s="66"/>
-      <c r="D106" s="66"/>
-      <c r="E106" s="66"/>
-      <c r="F106" s="66"/>
-      <c r="G106" s="66"/>
-      <c r="H106" s="66"/>
-      <c r="I106" s="66"/>
-      <c r="J106" s="66"/>
+      <c r="C106" s="76"/>
+      <c r="D106" s="76"/>
+      <c r="E106" s="76"/>
+      <c r="F106" s="76"/>
+      <c r="G106" s="76"/>
+      <c r="H106" s="76"/>
+      <c r="I106" s="76"/>
+      <c r="J106" s="76"/>
     </row>
     <row r="107" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B107" s="67" t="s">
+      <c r="B107" s="77" t="s">
         <v>168</v>
       </c>
-      <c r="C107" s="66"/>
-      <c r="D107" s="66"/>
-      <c r="E107" s="66"/>
-      <c r="F107" s="66"/>
-      <c r="G107" s="66"/>
-      <c r="H107" s="66"/>
-      <c r="I107" s="66"/>
-      <c r="J107" s="66"/>
+      <c r="C107" s="76"/>
+      <c r="D107" s="76"/>
+      <c r="E107" s="76"/>
+      <c r="F107" s="76"/>
+      <c r="G107" s="76"/>
+      <c r="H107" s="76"/>
+      <c r="I107" s="76"/>
+      <c r="J107" s="76"/>
     </row>
     <row r="108" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B108" s="67"/>
-      <c r="C108" s="66"/>
-      <c r="D108" s="66"/>
-      <c r="E108" s="66"/>
-      <c r="F108" s="66"/>
-      <c r="G108" s="66"/>
-      <c r="H108" s="66"/>
-      <c r="I108" s="66"/>
-      <c r="J108" s="66"/>
+      <c r="B108" s="77"/>
+      <c r="C108" s="76"/>
+      <c r="D108" s="76"/>
+      <c r="E108" s="76"/>
+      <c r="F108" s="76"/>
+      <c r="G108" s="76"/>
+      <c r="H108" s="76"/>
+      <c r="I108" s="76"/>
+      <c r="J108" s="76"/>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B109" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="C109" s="66"/>
-      <c r="D109" s="66"/>
-      <c r="E109" s="66"/>
-      <c r="F109" s="66"/>
-      <c r="G109" s="66"/>
-      <c r="H109" s="66"/>
-      <c r="I109" s="66"/>
-      <c r="J109" s="66"/>
+        <v>170</v>
+      </c>
+      <c r="C109" s="76"/>
+      <c r="D109" s="76"/>
+      <c r="E109" s="76"/>
+      <c r="F109" s="76"/>
+      <c r="G109" s="76"/>
+      <c r="H109" s="76"/>
+      <c r="I109" s="76"/>
+      <c r="J109" s="76"/>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B110" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C110" s="76"/>
+      <c r="D110" s="76"/>
+      <c r="E110" s="76"/>
+      <c r="F110" s="76"/>
+      <c r="G110" s="76"/>
+      <c r="H110" s="76"/>
+      <c r="I110" s="76"/>
+      <c r="J110" s="76"/>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B111" s="79" t="s">
         <v>172</v>
       </c>
-      <c r="C110" s="66"/>
-      <c r="D110" s="66"/>
-      <c r="E110" s="66"/>
-      <c r="F110" s="66"/>
-      <c r="G110" s="66"/>
-      <c r="H110" s="66"/>
-      <c r="I110" s="66"/>
-      <c r="J110" s="66"/>
-    </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B111" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="C111" s="66"/>
-      <c r="D111" s="66"/>
-      <c r="E111" s="66"/>
-      <c r="F111" s="66"/>
-      <c r="G111" s="66"/>
-      <c r="H111" s="66"/>
-      <c r="I111" s="66"/>
-      <c r="J111" s="66"/>
+      <c r="C111" s="76"/>
+      <c r="D111" s="76"/>
+      <c r="E111" s="76"/>
+      <c r="F111" s="76"/>
+      <c r="G111" s="76"/>
+      <c r="H111" s="76"/>
+      <c r="I111" s="76"/>
+      <c r="J111" s="76"/>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B112" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="C112" s="66"/>
-      <c r="D112" s="66"/>
-      <c r="E112" s="66"/>
-      <c r="F112" s="66"/>
-      <c r="G112" s="66"/>
-      <c r="H112" s="66"/>
-      <c r="I112" s="66"/>
-      <c r="J112" s="66"/>
+      <c r="C112" s="76"/>
+      <c r="D112" s="76"/>
+      <c r="E112" s="76"/>
+      <c r="F112" s="76"/>
+      <c r="G112" s="76"/>
+      <c r="H112" s="76"/>
+      <c r="I112" s="76"/>
+      <c r="J112" s="76"/>
     </row>
     <row r="113" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B113" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="C113" s="66"/>
-      <c r="D113" s="66"/>
-      <c r="E113" s="66"/>
-      <c r="F113" s="66"/>
-      <c r="G113" s="66"/>
-      <c r="H113" s="66"/>
-      <c r="I113" s="66"/>
-      <c r="J113" s="66"/>
+      <c r="B113" s="2"/>
+      <c r="C113" s="76"/>
+      <c r="D113" s="76"/>
+      <c r="E113" s="76"/>
+      <c r="F113" s="76"/>
+      <c r="G113" s="76"/>
+      <c r="H113" s="76"/>
+      <c r="I113" s="76"/>
+      <c r="J113" s="76"/>
     </row>
     <row r="114" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B114" s="2"/>
-      <c r="C114" s="66"/>
-      <c r="D114" s="66"/>
-      <c r="E114" s="66"/>
-      <c r="F114" s="66"/>
-      <c r="G114" s="66"/>
-      <c r="H114" s="66"/>
-      <c r="I114" s="66"/>
-      <c r="J114" s="66"/>
+      <c r="C114" s="76"/>
+      <c r="D114" s="76"/>
+      <c r="E114" s="76"/>
+      <c r="F114" s="76"/>
+      <c r="G114" s="76"/>
+      <c r="H114" s="76"/>
+      <c r="I114" s="76"/>
+      <c r="J114" s="76"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" r:id="rId1" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{3B566960-5370-4641-BCD6-BC651CA28774}"/>
-    <hyperlink ref="B110" r:id="rId2" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{C3002B50-0D8A-4B99-9CE8-E195432F0EAC}"/>
-    <hyperlink ref="B107" r:id="rId3" xr:uid="{9F5065B1-9595-4595-8D86-85455C1F4439}"/>
-    <hyperlink ref="B113" r:id="rId4" xr:uid="{8A3334E1-6812-4CF9-9251-8E2686927F39}"/>
-    <hyperlink ref="B112" r:id="rId5" xr:uid="{1C9783B4-B2B1-43DB-A1B1-F011B1F8B1B1}"/>
-    <hyperlink ref="B111" r:id="rId6" xr:uid="{A7CFC6CA-A959-49A1-A8DE-D62A41401F98}"/>
+    <hyperlink ref="B109" r:id="rId1" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{AE268DA7-9540-4D00-BCC2-13D9FFB40F9B}"/>
+    <hyperlink ref="B110" r:id="rId2" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{0DA149B7-7D40-44C1-8D2F-04431B24FDC7}"/>
+    <hyperlink ref="B113" r:id="rId3" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{2E2C37E2-3BE2-4C88-8FBC-1AAB13C38FDD}"/>
+    <hyperlink ref="B112" r:id="rId4" xr:uid="{7C5E1C90-7843-4C92-96A3-CF64F6948230}"/>
+    <hyperlink ref="B107" r:id="rId5" xr:uid="{E894D2D4-4F80-41B0-A1EB-CC8F18790817}"/>
+    <hyperlink ref="B111" r:id="rId6" xr:uid="{F095F00C-1C3B-4563-B3D1-52ECD5B4729F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="66" fitToHeight="0" orientation="portrait" r:id="rId7"/>
+  <headerFooter>
+    <oddFooter>&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K0000FF Restricted Use - À usage restreint</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
--- a/AfDD_2024_Annex_Table_Tab10.xlsx
+++ b/AfDD_2024_Annex_Table_Tab10.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{62365F8F-29C4-42E0-B257-4D03B0CCF28E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{78D70CA5-2D43-4D38-92BB-33414E867EC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-5400" windowWidth="38640" windowHeight="21120" xr2:uid="{B36C03ED-B292-457C-B10B-29FCBF90E4B4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{CFC5CD0B-C2CC-4800-8CEB-9CF043400367}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab10" sheetId="1" r:id="rId1"/>
@@ -1451,7 +1451,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F15DBA03-0EB5-4331-8AFD-DE64018D10C4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47DA1895-C0AB-4AAC-BFEB-F3AA78CDDB62}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -4780,12 +4780,12 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" r:id="rId1" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{AE268DA7-9540-4D00-BCC2-13D9FFB40F9B}"/>
-    <hyperlink ref="B110" r:id="rId2" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{0DA149B7-7D40-44C1-8D2F-04431B24FDC7}"/>
-    <hyperlink ref="B113" r:id="rId3" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{2E2C37E2-3BE2-4C88-8FBC-1AAB13C38FDD}"/>
-    <hyperlink ref="B112" r:id="rId4" xr:uid="{7C5E1C90-7843-4C92-96A3-CF64F6948230}"/>
-    <hyperlink ref="B107" r:id="rId5" xr:uid="{E894D2D4-4F80-41B0-A1EB-CC8F18790817}"/>
-    <hyperlink ref="B111" r:id="rId6" xr:uid="{F095F00C-1C3B-4563-B3D1-52ECD5B4729F}"/>
+    <hyperlink ref="B109" r:id="rId1" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{E96BA905-11D8-43D6-AFD2-572C7C56C760}"/>
+    <hyperlink ref="B110" r:id="rId2" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{3F631C2C-59AB-4787-97D0-A3266692B75C}"/>
+    <hyperlink ref="B113" r:id="rId3" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{A4C09CFF-BD95-4D32-B345-2930F79E7429}"/>
+    <hyperlink ref="B112" r:id="rId4" xr:uid="{E5D3CBC2-FBE8-452E-996B-4902EFC72100}"/>
+    <hyperlink ref="B107" r:id="rId5" xr:uid="{9A061BD5-B899-4B9D-815C-6BE9B13DE958}"/>
+    <hyperlink ref="B111" r:id="rId6" xr:uid="{EB3786E3-3C15-436D-A9EE-44834169DA6D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="66" fitToHeight="0" orientation="portrait" r:id="rId7"/>

--- a/AfDD_2024_Annex_Table_Tab10.xlsx
+++ b/AfDD_2024_Annex_Table_Tab10.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{78D70CA5-2D43-4D38-92BB-33414E867EC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4772CCF7-6262-4367-9DE0-253A90984ED4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{CFC5CD0B-C2CC-4800-8CEB-9CF043400367}"/>
+    <workbookView xWindow="-38520" yWindow="-5400" windowWidth="38640" windowHeight="21120" xr2:uid="{7BC784FA-FA52-4D03-957D-ECF581922724}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab10" sheetId="1" r:id="rId1"/>
@@ -1134,8 +1134,8 @@
     </xf>
     <xf numFmtId="37" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1451,7 +1451,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47DA1895-C0AB-4AAC-BFEB-F3AA78CDDB62}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41F3060F-1E58-4C75-95F5-C8B0B438064E}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -1463,7 +1463,7 @@
   <cols>
     <col min="1" max="1" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="10" width="12.42578125" style="78" bestFit="1" customWidth="1"/>
+    <col min="3" max="10" width="12.42578125" style="79" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4731,7 +4731,7 @@
       <c r="J110" s="76"/>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B111" s="79" t="s">
+      <c r="B111" s="78" t="s">
         <v>172</v>
       </c>
       <c r="C111" s="76"/>
@@ -4744,7 +4744,7 @@
       <c r="J111" s="76"/>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B112" s="2" t="s">
+      <c r="B112" s="78" t="s">
         <v>169</v>
       </c>
       <c r="C112" s="76"/>
@@ -4780,12 +4780,12 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" r:id="rId1" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{E96BA905-11D8-43D6-AFD2-572C7C56C760}"/>
-    <hyperlink ref="B110" r:id="rId2" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{3F631C2C-59AB-4787-97D0-A3266692B75C}"/>
-    <hyperlink ref="B113" r:id="rId3" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{A4C09CFF-BD95-4D32-B345-2930F79E7429}"/>
-    <hyperlink ref="B112" r:id="rId4" xr:uid="{E5D3CBC2-FBE8-452E-996B-4902EFC72100}"/>
-    <hyperlink ref="B107" r:id="rId5" xr:uid="{9A061BD5-B899-4B9D-815C-6BE9B13DE958}"/>
-    <hyperlink ref="B111" r:id="rId6" xr:uid="{EB3786E3-3C15-436D-A9EE-44834169DA6D}"/>
+    <hyperlink ref="B109" r:id="rId1" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{412584C9-FE5C-4798-97A3-0051F709B3E1}"/>
+    <hyperlink ref="B110" r:id="rId2" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{5C32D316-8FAC-4867-9B3A-288A909E9614}"/>
+    <hyperlink ref="B113" r:id="rId3" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{29BF6C23-B524-420D-B437-03E46ECF80A2}"/>
+    <hyperlink ref="B107" r:id="rId4" xr:uid="{11824577-DFB5-426B-B455-53BB551FC2AD}"/>
+    <hyperlink ref="B112" r:id="rId5" xr:uid="{5CB615FF-6816-4523-B0FD-942AE193429B}"/>
+    <hyperlink ref="B111" r:id="rId6" xr:uid="{BD2DB3B9-A262-4D61-ADAA-2DEE18F16714}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="66" fitToHeight="0" orientation="portrait" r:id="rId7"/>

--- a/AfDD_2024_Annex_Table_Tab10.xlsx
+++ b/AfDD_2024_Annex_Table_Tab10.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4772CCF7-6262-4367-9DE0-253A90984ED4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{51FA43EA-F60D-4053-B62F-BA4E7AB4A75E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-5400" windowWidth="38640" windowHeight="21120" xr2:uid="{7BC784FA-FA52-4D03-957D-ECF581922724}"/>
+    <workbookView xWindow="-38520" yWindow="-5400" windowWidth="38640" windowHeight="21120" xr2:uid="{0CFD0C3B-CBBB-4C4B-991F-E34FE3D0DA78}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab10" sheetId="1" r:id="rId1"/>
@@ -1451,7 +1451,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41F3060F-1E58-4C75-95F5-C8B0B438064E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42E1F6FD-351B-4EFD-8A54-244D5E900E68}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -4780,12 +4780,12 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" r:id="rId1" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{412584C9-FE5C-4798-97A3-0051F709B3E1}"/>
-    <hyperlink ref="B110" r:id="rId2" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{5C32D316-8FAC-4867-9B3A-288A909E9614}"/>
-    <hyperlink ref="B113" r:id="rId3" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{29BF6C23-B524-420D-B437-03E46ECF80A2}"/>
-    <hyperlink ref="B107" r:id="rId4" xr:uid="{11824577-DFB5-426B-B455-53BB551FC2AD}"/>
-    <hyperlink ref="B112" r:id="rId5" xr:uid="{5CB615FF-6816-4523-B0FD-942AE193429B}"/>
-    <hyperlink ref="B111" r:id="rId6" xr:uid="{BD2DB3B9-A262-4D61-ADAA-2DEE18F16714}"/>
+    <hyperlink ref="B109" r:id="rId1" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{63B9D553-4680-4F48-8016-470E203BB54A}"/>
+    <hyperlink ref="B110" r:id="rId2" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{F4F3D9FF-BCA0-4C5F-B4F1-E9A2E94EF927}"/>
+    <hyperlink ref="B113" r:id="rId3" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{9F41FFA4-B22E-47BB-BA8D-1C1D5652A399}"/>
+    <hyperlink ref="B107" r:id="rId4" xr:uid="{DC75F9C7-A1BD-4E52-A7EF-EE3ADFBDB579}"/>
+    <hyperlink ref="B112" r:id="rId5" xr:uid="{6D82478E-AFBF-40F3-BDE4-5E980913D322}"/>
+    <hyperlink ref="B111" r:id="rId6" xr:uid="{56D39D5F-329A-466A-90DD-524CCDB91323}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="66" fitToHeight="0" orientation="portrait" r:id="rId7"/>
